--- a/assets/EMPLOYEE MASTER DATA.xlsx
+++ b/assets/EMPLOYEE MASTER DATA.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\SGAM_Letter_Generator_Repo\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{34D6E9F8-1880-7F44-A6BE-5EFB373B053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Apr.25" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apr.25!$A$1:$AL$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apr.25!$A$1:$AL$207</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1689">
   <si>
     <t>INTER RAILWAY  MUTUAL TRANSFER FROM NER TO SGAM CHARGE TAKEN FROM 13/03/2025</t>
   </si>
@@ -5058,12 +5057,60 @@
   </si>
   <si>
     <t>42/15</t>
+  </si>
+  <si>
+    <t>30/1</t>
+  </si>
+  <si>
+    <t>30/3</t>
+  </si>
+  <si>
+    <t>30/4</t>
+  </si>
+  <si>
+    <t>30/5</t>
+  </si>
+  <si>
+    <t>30/6</t>
+  </si>
+  <si>
+    <t>30/7</t>
+  </si>
+  <si>
+    <t>30/8</t>
+  </si>
+  <si>
+    <t>30/9</t>
+  </si>
+  <si>
+    <t>30/10</t>
+  </si>
+  <si>
+    <t>30/11</t>
+  </si>
+  <si>
+    <t>30/12</t>
+  </si>
+  <si>
+    <t>31/1</t>
+  </si>
+  <si>
+    <t>31/3</t>
+  </si>
+  <si>
+    <t>31/5</t>
+  </si>
+  <si>
+    <t>31/7</t>
+  </si>
+  <si>
+    <t>31/8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -5200,7 +5247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5302,16 +5349,12 @@
     <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5591,55 +5634,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:AL934"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I215" sqref="I215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8359375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.4375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.421875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.7890625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.23828125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.4140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7421875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.8359375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.046875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.36328125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="6.859375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.01171875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.66015625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.14453125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.9140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.43359375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.56640625" style="3" customWidth="1"/>
-    <col min="24" max="25" width="10.22265625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6015625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.22265625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.046875" style="1" customWidth="1"/>
-    <col min="29" max="30" width="19.90625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.37109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="19.90625" style="1" customWidth="1"/>
-    <col min="33" max="35" width="14.9296875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="5.37890625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4.03515625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="14.390625" style="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="3" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="29" max="30" width="19.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="1" customWidth="1"/>
+    <col min="33" max="35" width="15" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="4" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>1634</v>
       </c>
@@ -5752,7 +5795,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5765,8 +5808,8 @@
       <c r="D2" s="10">
         <v>17</v>
       </c>
-      <c r="E2" s="39">
-        <v>45687</v>
+      <c r="E2" s="40" t="s">
+        <v>1673</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>1601</v>
@@ -5863,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -5972,7 +6015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -5985,8 +6028,8 @@
       <c r="D4" s="10">
         <v>39</v>
       </c>
-      <c r="E4" s="39">
-        <v>45746</v>
+      <c r="E4" s="40" t="s">
+        <v>1674</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>1585</v>
@@ -6081,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -6094,8 +6137,8 @@
       <c r="D5" s="10">
         <v>40</v>
       </c>
-      <c r="E5" s="39">
-        <v>45777</v>
+      <c r="E5" s="40" t="s">
+        <v>1675</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>1271</v>
@@ -6188,7 +6231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -6201,8 +6244,8 @@
       <c r="D6" s="10">
         <v>48</v>
       </c>
-      <c r="E6" s="39">
-        <v>45807</v>
+      <c r="E6" s="40" t="s">
+        <v>1676</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>1573</v>
@@ -6297,7 +6340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -6310,8 +6353,8 @@
       <c r="D7" s="10">
         <v>53</v>
       </c>
-      <c r="E7" s="39">
-        <v>45838</v>
+      <c r="E7" s="40" t="s">
+        <v>1677</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>1566</v>
@@ -6406,7 +6449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -6419,8 +6462,8 @@
       <c r="D8" s="10">
         <v>54</v>
       </c>
-      <c r="E8" s="39">
-        <v>45868</v>
+      <c r="E8" s="40" t="s">
+        <v>1678</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>1560</v>
@@ -6513,7 +6556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -6526,8 +6569,8 @@
       <c r="D9" s="10">
         <v>99</v>
       </c>
-      <c r="E9" s="39">
-        <v>45899</v>
+      <c r="E9" s="40" t="s">
+        <v>1679</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>1553</v>
@@ -6620,7 +6663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6633,8 +6676,8 @@
       <c r="D10" s="10">
         <v>102</v>
       </c>
-      <c r="E10" s="39">
-        <v>45930</v>
+      <c r="E10" s="40" t="s">
+        <v>1680</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>1546</v>
@@ -6729,7 +6772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -6742,8 +6785,8 @@
       <c r="D11" s="10">
         <v>117</v>
       </c>
-      <c r="E11" s="39">
-        <v>45960</v>
+      <c r="E11" s="40" t="s">
+        <v>1681</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>1539</v>
@@ -6832,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6845,8 +6888,8 @@
       <c r="D12" s="10">
         <v>130</v>
       </c>
-      <c r="E12" s="39">
-        <v>45991</v>
+      <c r="E12" s="40" t="s">
+        <v>1682</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1532</v>
@@ -6941,7 +6984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -6954,8 +6997,8 @@
       <c r="D13" s="10">
         <v>131</v>
       </c>
-      <c r="E13" s="39">
-        <v>46021</v>
+      <c r="E13" s="40" t="s">
+        <v>1683</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>1525</v>
@@ -7048,7 +7091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -7151,7 +7194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -7252,7 +7295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -7355,7 +7398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -7458,7 +7501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -7567,7 +7610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -7672,7 +7715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -7685,8 +7728,8 @@
       <c r="D20" s="10">
         <v>6</v>
       </c>
-      <c r="E20" s="39">
-        <v>45688</v>
+      <c r="E20" s="40" t="s">
+        <v>1684</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>1470</v>
@@ -7781,7 +7824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -7888,7 +7931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -7901,8 +7944,8 @@
       <c r="D22" s="10">
         <v>20</v>
       </c>
-      <c r="E22" s="39">
-        <v>45747</v>
+      <c r="E22" s="40" t="s">
+        <v>1685</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>1456</v>
@@ -7995,7 +8038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -8102,7 +8145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -8115,8 +8158,8 @@
       <c r="D24" s="10">
         <v>122</v>
       </c>
-      <c r="E24" s="39">
-        <v>45808</v>
+      <c r="E24" s="40" t="s">
+        <v>1686</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>747</v>
@@ -8207,7 +8250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -8310,7 +8353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -8323,8 +8366,8 @@
       <c r="D26" s="10">
         <v>134</v>
       </c>
-      <c r="E26" s="39">
-        <v>45869</v>
+      <c r="E26" s="40" t="s">
+        <v>1687</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>1430</v>
@@ -8413,7 +8456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -8426,8 +8469,8 @@
       <c r="D27" s="10">
         <v>154</v>
       </c>
-      <c r="E27" s="39">
-        <v>45900</v>
+      <c r="E27" s="40" t="s">
+        <v>1688</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>1423</v>
@@ -8520,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -8623,7 +8666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -8724,7 +8767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -8833,7 +8876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -8940,7 +8983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -9047,7 +9090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -9137,7 +9180,7 @@
       <c r="AE33" s="11">
         <v>110024366325</v>
       </c>
-      <c r="AF33" s="40">
+      <c r="AF33" s="39">
         <v>2014500000000000</v>
       </c>
       <c r="AG33" s="10"/>
@@ -9154,7 +9197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -9259,7 +9302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -9364,7 +9407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -9469,7 +9512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -9576,7 +9619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -9679,7 +9722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -9782,7 +9825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -9885,9 +9928,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>1325</v>
@@ -9992,9 +10035,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>1318</v>
@@ -10100,9 +10143,9 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>1311</v>
@@ -10192,7 +10235,7 @@
       <c r="AE43" s="11">
         <v>110042676629</v>
       </c>
-      <c r="AF43" s="40">
+      <c r="AF43" s="39">
         <v>2012500000000000</v>
       </c>
       <c r="AG43" s="10" t="s">
@@ -10211,9 +10254,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>1303</v>
@@ -10301,7 +10344,7 @@
       <c r="AE44" s="11">
         <v>110003527246</v>
       </c>
-      <c r="AF44" s="40">
+      <c r="AF44" s="39">
         <v>2013500000000000</v>
       </c>
       <c r="AG44" s="10"/>
@@ -10318,9 +10361,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>1295</v>
@@ -10427,9 +10470,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>1287</v>
@@ -10530,7 +10573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -10635,7 +10678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -10736,7 +10779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -10845,7 +10888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -10952,7 +10995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -11059,7 +11102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -11166,7 +11209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -11273,7 +11316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -11380,7 +11423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -11472,7 +11515,7 @@
       <c r="AE55" s="11">
         <v>110093748671</v>
       </c>
-      <c r="AF55" s="40">
+      <c r="AF55" s="39">
         <v>2013500000000000</v>
       </c>
       <c r="AG55" s="10"/>
@@ -11489,7 +11532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -11590,7 +11633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -11691,7 +11734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -11798,7 +11841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -11905,7 +11948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -12012,7 +12055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -12119,7 +12162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -12209,7 +12252,7 @@
       <c r="AE62" s="11">
         <v>110034584644</v>
       </c>
-      <c r="AF62" s="40">
+      <c r="AF62" s="39">
         <v>2015500000000000</v>
       </c>
       <c r="AG62" s="10" t="s">
@@ -12228,7 +12271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -12333,7 +12376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -12436,7 +12479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -12543,7 +12586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -12652,7 +12695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -12755,7 +12798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -12858,7 +12901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -12959,7 +13002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -13060,7 +13103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -13163,7 +13206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -13264,7 +13307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -13367,7 +13410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -13468,7 +13511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -13569,7 +13612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -13672,7 +13715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -13775,7 +13818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -13876,7 +13919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -13977,7 +14020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -14069,7 +14112,7 @@
       <c r="AE80" s="11">
         <v>111109702070</v>
       </c>
-      <c r="AF80" s="40">
+      <c r="AF80" s="39">
         <v>223503000000000</v>
       </c>
       <c r="AG80" s="10"/>
@@ -14084,7 +14127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -14187,7 +14230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -14292,7 +14335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -14391,7 +14434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -14481,7 +14524,7 @@
       <c r="AE84" s="11">
         <v>110050937289</v>
       </c>
-      <c r="AF84" s="40">
+      <c r="AF84" s="39">
         <v>2010500000000000</v>
       </c>
       <c r="AG84" s="10" t="s">
@@ -14501,7 +14544,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -14608,7 +14651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -14717,7 +14760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -14824,7 +14867,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -14933,7 +14976,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -15040,7 +15083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -15145,7 +15188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -15250,7 +15293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -15351,7 +15394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -15456,7 +15499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -15545,7 +15588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -15654,7 +15697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -15763,7 +15806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -15872,7 +15915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -15979,7 +16022,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -16086,7 +16129,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -16195,7 +16238,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -16302,7 +16345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -16403,7 +16446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -16506,7 +16549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -16609,7 +16652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -16710,7 +16753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -16811,7 +16854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -16920,7 +16963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -17027,7 +17070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -17134,7 +17177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -17235,7 +17278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -17340,7 +17383,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -17443,7 +17486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -17546,7 +17589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -17651,7 +17694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -17752,7 +17795,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -17853,9 +17896,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>732</v>
@@ -17944,9 +17987,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>737</v>
@@ -18045,7 +18088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -18156,7 +18199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>119</v>
       </c>
@@ -18265,7 +18308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -18357,7 +18400,7 @@
       <c r="AE121" s="11">
         <v>110020435988</v>
       </c>
-      <c r="AF121" s="40">
+      <c r="AF121" s="39">
         <v>2008500000000000</v>
       </c>
       <c r="AG121" s="10"/>
@@ -18372,7 +18415,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>121</v>
       </c>
@@ -18479,7 +18522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -18584,7 +18627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -18689,7 +18732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -18792,7 +18835,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>125</v>
       </c>
@@ -18893,7 +18936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -18994,7 +19037,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>127</v>
       </c>
@@ -19097,7 +19140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -19196,7 +19239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -19305,7 +19348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -19412,7 +19455,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>131</v>
       </c>
@@ -19502,7 +19545,7 @@
       <c r="AE132" s="11">
         <v>111004366271</v>
       </c>
-      <c r="AF132" s="40">
+      <c r="AF132" s="39">
         <v>2014500000000000</v>
       </c>
       <c r="AG132" s="10" t="s">
@@ -19521,8 +19564,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="10"/>
+    <row r="133" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>132</v>
+      </c>
       <c r="B133" s="17" t="s">
         <v>1654</v>
       </c>
@@ -19622,9 +19667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>614</v>
@@ -19727,9 +19772,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>607</v>
@@ -19837,9 +19882,9 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>600</v>
@@ -19938,9 +19983,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>593</v>
@@ -20039,9 +20084,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>586</v>
@@ -20140,9 +20185,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>579</v>
@@ -20243,9 +20288,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>571</v>
@@ -20346,9 +20391,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>564</v>
@@ -20449,9 +20494,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>556</v>
@@ -20554,9 +20599,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>548</v>
@@ -20655,9 +20700,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>541</v>
@@ -20756,9 +20801,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>534</v>
@@ -20865,9 +20910,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>524</v>
@@ -20974,9 +21019,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>515</v>
@@ -21083,9 +21128,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>506</v>
@@ -21173,7 +21218,7 @@
       <c r="AE148" s="11">
         <v>110092962839</v>
       </c>
-      <c r="AF148" s="40">
+      <c r="AF148" s="39">
         <v>2012500000000000</v>
       </c>
       <c r="AG148" s="10"/>
@@ -21190,9 +21235,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>498</v>
@@ -21295,9 +21340,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>491</v>
@@ -21404,9 +21449,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>482</v>
@@ -21513,9 +21558,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>473</v>
@@ -21620,9 +21665,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>465</v>
@@ -21725,9 +21770,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>458</v>
@@ -21830,9 +21875,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>450</v>
@@ -21937,9 +21982,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>441</v>
@@ -22044,9 +22089,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="17" t="s">
         <v>432</v>
@@ -22151,9 +22196,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>423</v>
@@ -22258,9 +22303,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>415</v>
@@ -22361,9 +22406,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="17" t="s">
         <v>408</v>
@@ -22466,9 +22511,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="17" t="s">
         <v>400</v>
@@ -22571,9 +22616,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>393</v>
@@ -22659,7 +22704,7 @@
       <c r="AE162" s="11">
         <v>110196553461</v>
       </c>
-      <c r="AF162" s="40">
+      <c r="AF162" s="39">
         <v>110197000000</v>
       </c>
       <c r="AG162" s="10"/>
@@ -22676,9 +22721,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>387</v>
@@ -22785,9 +22830,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>377</v>
@@ -22894,9 +22939,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>368</v>
@@ -23001,9 +23046,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="17" t="s">
         <v>360</v>
@@ -23110,9 +23155,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>351</v>
@@ -23213,9 +23258,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>344</v>
@@ -23320,9 +23365,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B169" s="17" t="s">
         <v>1665</v>
@@ -23421,9 +23466,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>337</v>
@@ -23530,9 +23575,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B171" s="17" t="s">
         <v>328</v>
@@ -23633,9 +23678,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172" s="17" t="s">
         <v>320</v>
@@ -23736,9 +23781,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B173" s="17" t="s">
         <v>312</v>
@@ -23837,9 +23882,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B174" s="17" t="s">
         <v>305</v>
@@ -23938,9 +23983,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B175" s="17" t="s">
         <v>298</v>
@@ -24041,9 +24086,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B176" s="17" t="s">
         <v>290</v>
@@ -24142,9 +24187,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B177" s="17" t="s">
         <v>283</v>
@@ -24243,9 +24288,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B178" s="17" t="s">
         <v>276</v>
@@ -24346,9 +24391,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B179" s="17" t="s">
         <v>268</v>
@@ -24453,9 +24498,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B180" s="17" t="s">
         <v>259</v>
@@ -24560,9 +24605,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B181" s="17" t="s">
         <v>250</v>
@@ -24665,9 +24710,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B182" s="17" t="s">
         <v>241</v>
@@ -24772,9 +24817,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B183" s="17" t="s">
         <v>233</v>
@@ -24879,9 +24924,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B184" s="17" t="s">
         <v>225</v>
@@ -24986,9 +25031,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>217</v>
@@ -25091,9 +25136,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B186" s="17" t="s">
         <v>210</v>
@@ -25198,9 +25243,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B187" s="17" t="s">
         <v>202</v>
@@ -25309,9 +25354,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" s="17" t="s">
         <v>192</v>
@@ -25414,9 +25459,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B189" s="17" t="s">
         <v>183</v>
@@ -25519,9 +25564,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B190" s="17" t="s">
         <v>175</v>
@@ -25626,9 +25671,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" s="17" t="s">
         <v>166</v>
@@ -25733,9 +25778,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>158</v>
@@ -25840,9 +25885,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>149</v>
@@ -25941,9 +25986,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" s="17" t="s">
         <v>140</v>
@@ -26048,9 +26093,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B195" s="17" t="s">
         <v>132</v>
@@ -26157,9 +26202,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="17" t="s">
         <v>123</v>
@@ -26264,9 +26309,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>115</v>
@@ -26369,9 +26414,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>107</v>
@@ -26474,9 +26519,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>95</v>
@@ -26583,9 +26628,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B200" s="17" t="s">
         <v>85</v>
@@ -26690,9 +26735,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" s="17" t="s">
         <v>77</v>
@@ -26780,7 +26825,7 @@
       <c r="AE201" s="11">
         <v>110004805685</v>
       </c>
-      <c r="AF201" s="40">
+      <c r="AF201" s="39">
         <v>2015500000000000</v>
       </c>
       <c r="AG201" s="10"/>
@@ -26797,9 +26842,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>68</v>
@@ -26906,9 +26951,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B203" s="17" t="s">
         <v>55</v>
@@ -27015,9 +27060,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B204" s="17" t="s">
         <v>46</v>
@@ -27120,9 +27165,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>35</v>
@@ -27230,203 +27275,203 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="206" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+    <row r="206" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="10">
+        <v>205</v>
+      </c>
+      <c r="B206" s="17">
+        <v>45229801948</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" s="10">
+        <v>202</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H206" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" s="14">
+        <v>2</v>
+      </c>
+      <c r="K206" s="14">
+        <v>23800</v>
+      </c>
+      <c r="L206" s="16">
+        <v>31212</v>
+      </c>
+      <c r="M206" s="16">
+        <v>42725</v>
+      </c>
+      <c r="N206" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O206" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P206" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q206" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R206" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S206" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T206" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U206" s="16">
+        <v>45703</v>
+      </c>
+      <c r="V206" s="15"/>
+      <c r="W206" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X206" s="13"/>
+      <c r="Y206" s="13"/>
+      <c r="Z206" s="13"/>
+      <c r="AA206" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB206" s="13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC206" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AD206" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE206" s="11">
+        <v>110145686321</v>
+      </c>
+      <c r="AF206" s="10"/>
+      <c r="AG206" s="10"/>
+      <c r="AH206" s="10">
+        <v>7701088860</v>
+      </c>
+      <c r="AI206" s="9"/>
+      <c r="AJ206" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK206" s="7">
         <v>203</v>
       </c>
-      <c r="B206" s="4">
-        <v>45229801948</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D206" s="4">
-        <v>202</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F206" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H206" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I206" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J206" s="6">
+    </row>
+    <row r="207" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="10">
+        <v>206</v>
+      </c>
+      <c r="B207" s="17">
+        <v>9329805039</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="10">
+        <v>205</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I207" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J207" s="14">
+        <v>1</v>
+      </c>
+      <c r="K207" s="14">
+        <v>19100</v>
+      </c>
+      <c r="L207" s="16">
+        <v>36717</v>
+      </c>
+      <c r="M207" s="16">
+        <v>45215</v>
+      </c>
+      <c r="N207" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O207" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P207" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q207" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R207" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S207" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T207" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U207" s="16"/>
+      <c r="V207" s="15">
+        <v>58653</v>
+      </c>
+      <c r="W207" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K206" s="6">
-        <v>23800</v>
-      </c>
-      <c r="L206" s="41">
-        <v>31212</v>
-      </c>
-      <c r="M206" s="41">
-        <v>42725</v>
-      </c>
-      <c r="N206" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O206" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P206" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q206" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R206" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S206" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T206" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U206" s="41">
-        <v>45703</v>
-      </c>
-      <c r="V206" s="6"/>
-      <c r="W206" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X206" s="4"/>
-      <c r="Y206" s="4"/>
-      <c r="Z206" s="4"/>
-      <c r="AA206" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB206" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC206" s="4" t="s">
-        <v>1644</v>
-      </c>
-      <c r="AD206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE206" s="5">
-        <v>110145686321</v>
-      </c>
-      <c r="AF206" s="4"/>
-      <c r="AG206" s="4"/>
-      <c r="AH206" s="4">
-        <v>7701088860</v>
-      </c>
-      <c r="AI206" s="4"/>
-      <c r="AJ206" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK206" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="207" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+      <c r="X207" s="13">
+        <v>45125</v>
+      </c>
+      <c r="Y207" s="13">
+        <v>46585</v>
+      </c>
+      <c r="Z207" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA207" s="13"/>
+      <c r="AB207" s="13">
+        <v>47144</v>
+      </c>
+      <c r="AC207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="10"/>
+      <c r="AE207" s="11"/>
+      <c r="AF207" s="10"/>
+      <c r="AG207" s="10"/>
+      <c r="AH207" s="10"/>
+      <c r="AI207" s="9"/>
+      <c r="AJ207" s="7">
+        <v>43</v>
+      </c>
+      <c r="AK207" s="7">
         <v>204</v>
       </c>
-      <c r="B207" s="4">
-        <v>9329805039</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="4">
-        <v>205</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F207" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H207" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I207" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J207" s="6">
-        <v>1</v>
-      </c>
-      <c r="K207" s="6">
-        <v>19100</v>
-      </c>
-      <c r="L207" s="41">
-        <v>36717</v>
-      </c>
-      <c r="M207" s="41">
-        <v>45215</v>
-      </c>
-      <c r="N207" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O207" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P207" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q207" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R207" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S207" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T207" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U207" s="6"/>
-      <c r="V207" s="41">
-        <v>58653</v>
-      </c>
-      <c r="W207" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X207" s="42">
-        <v>45125</v>
-      </c>
-      <c r="Y207" s="42">
-        <v>46585</v>
-      </c>
-      <c r="Z207" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA207" s="4"/>
-      <c r="AB207" s="42">
-        <v>47144</v>
-      </c>
-      <c r="AC207" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD207" s="4"/>
-      <c r="AE207" s="5"/>
-      <c r="AF207" s="4"/>
-      <c r="AG207" s="4"/>
-      <c r="AH207" s="4"/>
-      <c r="AI207" s="4"/>
-      <c r="AJ207" s="1">
-        <v>43</v>
-      </c>
-      <c r="AK207" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="208" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -27463,7 +27508,7 @@
       <c r="AH208" s="4"/>
       <c r="AI208" s="4"/>
     </row>
-    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -27500,7 +27545,7 @@
       <c r="AH209" s="4"/>
       <c r="AI209" s="4"/>
     </row>
-    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -27537,7 +27582,7 @@
       <c r="AH210" s="4"/>
       <c r="AI210" s="4"/>
     </row>
-    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -27574,7 +27619,7 @@
       <c r="AH211" s="4"/>
       <c r="AI211" s="4"/>
     </row>
-    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -27611,7 +27656,7 @@
       <c r="AH212" s="4"/>
       <c r="AI212" s="4"/>
     </row>
-    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -27648,7 +27693,7 @@
       <c r="AH213" s="4"/>
       <c r="AI213" s="4"/>
     </row>
-    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -27685,7 +27730,7 @@
       <c r="AH214" s="4"/>
       <c r="AI214" s="4"/>
     </row>
-    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -27722,7 +27767,7 @@
       <c r="AH215" s="4"/>
       <c r="AI215" s="4"/>
     </row>
-    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -27759,7 +27804,7 @@
       <c r="AH216" s="4"/>
       <c r="AI216" s="4"/>
     </row>
-    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -27796,7 +27841,7 @@
       <c r="AH217" s="4"/>
       <c r="AI217" s="4"/>
     </row>
-    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -27833,7 +27878,7 @@
       <c r="AH218" s="4"/>
       <c r="AI218" s="4"/>
     </row>
-    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -27870,7 +27915,7 @@
       <c r="AH219" s="4"/>
       <c r="AI219" s="4"/>
     </row>
-    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -27907,7 +27952,7 @@
       <c r="AH220" s="4"/>
       <c r="AI220" s="4"/>
     </row>
-    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -27944,7 +27989,7 @@
       <c r="AH221" s="4"/>
       <c r="AI221" s="4"/>
     </row>
-    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -27981,7 +28026,7 @@
       <c r="AH222" s="4"/>
       <c r="AI222" s="4"/>
     </row>
-    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -28018,7 +28063,7 @@
       <c r="AH223" s="4"/>
       <c r="AI223" s="4"/>
     </row>
-    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -28055,7 +28100,7 @@
       <c r="AH224" s="4"/>
       <c r="AI224" s="4"/>
     </row>
-    <row r="225" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -28092,7 +28137,7 @@
       <c r="AH225" s="4"/>
       <c r="AI225" s="4"/>
     </row>
-    <row r="226" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -28129,7 +28174,7 @@
       <c r="AH226" s="4"/>
       <c r="AI226" s="4"/>
     </row>
-    <row r="227" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -28166,7 +28211,7 @@
       <c r="AH227" s="4"/>
       <c r="AI227" s="4"/>
     </row>
-    <row r="228" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -28203,7 +28248,7 @@
       <c r="AH228" s="4"/>
       <c r="AI228" s="4"/>
     </row>
-    <row r="229" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -28240,7 +28285,7 @@
       <c r="AH229" s="4"/>
       <c r="AI229" s="4"/>
     </row>
-    <row r="230" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -28277,7 +28322,7 @@
       <c r="AH230" s="4"/>
       <c r="AI230" s="4"/>
     </row>
-    <row r="231" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -28314,7 +28359,7 @@
       <c r="AH231" s="4"/>
       <c r="AI231" s="4"/>
     </row>
-    <row r="232" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -28351,7 +28396,7 @@
       <c r="AH232" s="4"/>
       <c r="AI232" s="4"/>
     </row>
-    <row r="233" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -28388,7 +28433,7 @@
       <c r="AH233" s="4"/>
       <c r="AI233" s="4"/>
     </row>
-    <row r="234" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -28425,7 +28470,7 @@
       <c r="AH234" s="4"/>
       <c r="AI234" s="4"/>
     </row>
-    <row r="235" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -28462,7 +28507,7 @@
       <c r="AH235" s="4"/>
       <c r="AI235" s="4"/>
     </row>
-    <row r="236" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -28499,7 +28544,7 @@
       <c r="AH236" s="4"/>
       <c r="AI236" s="4"/>
     </row>
-    <row r="237" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -28536,7 +28581,7 @@
       <c r="AH237" s="4"/>
       <c r="AI237" s="4"/>
     </row>
-    <row r="238" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -28573,7 +28618,7 @@
       <c r="AH238" s="4"/>
       <c r="AI238" s="4"/>
     </row>
-    <row r="239" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -28610,7 +28655,7 @@
       <c r="AH239" s="4"/>
       <c r="AI239" s="4"/>
     </row>
-    <row r="240" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -28647,7 +28692,7 @@
       <c r="AH240" s="4"/>
       <c r="AI240" s="4"/>
     </row>
-    <row r="241" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -28684,7 +28729,7 @@
       <c r="AH241" s="4"/>
       <c r="AI241" s="4"/>
     </row>
-    <row r="242" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -28721,7 +28766,7 @@
       <c r="AH242" s="4"/>
       <c r="AI242" s="4"/>
     </row>
-    <row r="243" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -28758,7 +28803,7 @@
       <c r="AH243" s="4"/>
       <c r="AI243" s="4"/>
     </row>
-    <row r="244" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -28795,7 +28840,7 @@
       <c r="AH244" s="4"/>
       <c r="AI244" s="4"/>
     </row>
-    <row r="245" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -28832,7 +28877,7 @@
       <c r="AH245" s="4"/>
       <c r="AI245" s="4"/>
     </row>
-    <row r="246" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -28869,7 +28914,7 @@
       <c r="AH246" s="4"/>
       <c r="AI246" s="4"/>
     </row>
-    <row r="247" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -28906,7 +28951,7 @@
       <c r="AH247" s="4"/>
       <c r="AI247" s="4"/>
     </row>
-    <row r="248" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -28943,7 +28988,7 @@
       <c r="AH248" s="4"/>
       <c r="AI248" s="4"/>
     </row>
-    <row r="249" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -28980,7 +29025,7 @@
       <c r="AH249" s="4"/>
       <c r="AI249" s="4"/>
     </row>
-    <row r="250" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -29017,7 +29062,7 @@
       <c r="AH250" s="4"/>
       <c r="AI250" s="4"/>
     </row>
-    <row r="251" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -29054,7 +29099,7 @@
       <c r="AH251" s="4"/>
       <c r="AI251" s="4"/>
     </row>
-    <row r="252" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -29091,7 +29136,7 @@
       <c r="AH252" s="4"/>
       <c r="AI252" s="4"/>
     </row>
-    <row r="253" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -29128,7 +29173,7 @@
       <c r="AH253" s="4"/>
       <c r="AI253" s="4"/>
     </row>
-    <row r="254" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -29165,7 +29210,7 @@
       <c r="AH254" s="4"/>
       <c r="AI254" s="4"/>
     </row>
-    <row r="255" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -29202,7 +29247,7 @@
       <c r="AH255" s="4"/>
       <c r="AI255" s="4"/>
     </row>
-    <row r="256" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -29239,7 +29284,7 @@
       <c r="AH256" s="4"/>
       <c r="AI256" s="4"/>
     </row>
-    <row r="257" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -29276,7 +29321,7 @@
       <c r="AH257" s="4"/>
       <c r="AI257" s="4"/>
     </row>
-    <row r="258" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -29313,7 +29358,7 @@
       <c r="AH258" s="4"/>
       <c r="AI258" s="4"/>
     </row>
-    <row r="259" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -29350,7 +29395,7 @@
       <c r="AH259" s="4"/>
       <c r="AI259" s="4"/>
     </row>
-    <row r="260" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -29387,7 +29432,7 @@
       <c r="AH260" s="4"/>
       <c r="AI260" s="4"/>
     </row>
-    <row r="261" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -29424,7 +29469,7 @@
       <c r="AH261" s="4"/>
       <c r="AI261" s="4"/>
     </row>
-    <row r="262" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -29461,7 +29506,7 @@
       <c r="AH262" s="4"/>
       <c r="AI262" s="4"/>
     </row>
-    <row r="263" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -29498,7 +29543,7 @@
       <c r="AH263" s="4"/>
       <c r="AI263" s="4"/>
     </row>
-    <row r="264" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -29535,7 +29580,7 @@
       <c r="AH264" s="4"/>
       <c r="AI264" s="4"/>
     </row>
-    <row r="265" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -29572,7 +29617,7 @@
       <c r="AH265" s="4"/>
       <c r="AI265" s="4"/>
     </row>
-    <row r="266" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -29609,7 +29654,7 @@
       <c r="AH266" s="4"/>
       <c r="AI266" s="4"/>
     </row>
-    <row r="267" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -29646,7 +29691,7 @@
       <c r="AH267" s="4"/>
       <c r="AI267" s="4"/>
     </row>
-    <row r="268" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -29683,7 +29728,7 @@
       <c r="AH268" s="4"/>
       <c r="AI268" s="4"/>
     </row>
-    <row r="269" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -29720,7 +29765,7 @@
       <c r="AH269" s="4"/>
       <c r="AI269" s="4"/>
     </row>
-    <row r="270" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -29757,7 +29802,7 @@
       <c r="AH270" s="4"/>
       <c r="AI270" s="4"/>
     </row>
-    <row r="271" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -29794,7 +29839,7 @@
       <c r="AH271" s="4"/>
       <c r="AI271" s="4"/>
     </row>
-    <row r="272" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -29831,7 +29876,7 @@
       <c r="AH272" s="4"/>
       <c r="AI272" s="4"/>
     </row>
-    <row r="273" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -29868,7 +29913,7 @@
       <c r="AH273" s="4"/>
       <c r="AI273" s="4"/>
     </row>
-    <row r="274" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -29905,7 +29950,7 @@
       <c r="AH274" s="4"/>
       <c r="AI274" s="4"/>
     </row>
-    <row r="275" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -29942,7 +29987,7 @@
       <c r="AH275" s="4"/>
       <c r="AI275" s="4"/>
     </row>
-    <row r="276" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -29979,7 +30024,7 @@
       <c r="AH276" s="4"/>
       <c r="AI276" s="4"/>
     </row>
-    <row r="277" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -30016,7 +30061,7 @@
       <c r="AH277" s="4"/>
       <c r="AI277" s="4"/>
     </row>
-    <row r="278" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -30053,7 +30098,7 @@
       <c r="AH278" s="4"/>
       <c r="AI278" s="4"/>
     </row>
-    <row r="279" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -30090,7 +30135,7 @@
       <c r="AH279" s="4"/>
       <c r="AI279" s="4"/>
     </row>
-    <row r="280" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -30127,7 +30172,7 @@
       <c r="AH280" s="4"/>
       <c r="AI280" s="4"/>
     </row>
-    <row r="281" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -30164,7 +30209,7 @@
       <c r="AH281" s="4"/>
       <c r="AI281" s="4"/>
     </row>
-    <row r="282" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -30201,7 +30246,7 @@
       <c r="AH282" s="4"/>
       <c r="AI282" s="4"/>
     </row>
-    <row r="283" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -30238,7 +30283,7 @@
       <c r="AH283" s="4"/>
       <c r="AI283" s="4"/>
     </row>
-    <row r="284" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -30275,7 +30320,7 @@
       <c r="AH284" s="4"/>
       <c r="AI284" s="4"/>
     </row>
-    <row r="285" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -30312,7 +30357,7 @@
       <c r="AH285" s="4"/>
       <c r="AI285" s="4"/>
     </row>
-    <row r="286" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -30349,7 +30394,7 @@
       <c r="AH286" s="4"/>
       <c r="AI286" s="4"/>
     </row>
-    <row r="287" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -30386,7 +30431,7 @@
       <c r="AH287" s="4"/>
       <c r="AI287" s="4"/>
     </row>
-    <row r="288" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -30423,7 +30468,7 @@
       <c r="AH288" s="4"/>
       <c r="AI288" s="4"/>
     </row>
-    <row r="289" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -30460,7 +30505,7 @@
       <c r="AH289" s="4"/>
       <c r="AI289" s="4"/>
     </row>
-    <row r="290" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -30497,7 +30542,7 @@
       <c r="AH290" s="4"/>
       <c r="AI290" s="4"/>
     </row>
-    <row r="291" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -30534,7 +30579,7 @@
       <c r="AH291" s="4"/>
       <c r="AI291" s="4"/>
     </row>
-    <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -30571,7 +30616,7 @@
       <c r="AH292" s="4"/>
       <c r="AI292" s="4"/>
     </row>
-    <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -30608,7 +30653,7 @@
       <c r="AH293" s="4"/>
       <c r="AI293" s="4"/>
     </row>
-    <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -30645,7 +30690,7 @@
       <c r="AH294" s="4"/>
       <c r="AI294" s="4"/>
     </row>
-    <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -30682,7 +30727,7 @@
       <c r="AH295" s="4"/>
       <c r="AI295" s="4"/>
     </row>
-    <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -30719,7 +30764,7 @@
       <c r="AH296" s="4"/>
       <c r="AI296" s="4"/>
     </row>
-    <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -30756,7 +30801,7 @@
       <c r="AH297" s="4"/>
       <c r="AI297" s="4"/>
     </row>
-    <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -30793,7 +30838,7 @@
       <c r="AH298" s="4"/>
       <c r="AI298" s="4"/>
     </row>
-    <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -30830,7 +30875,7 @@
       <c r="AH299" s="4"/>
       <c r="AI299" s="4"/>
     </row>
-    <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -30867,7 +30912,7 @@
       <c r="AH300" s="4"/>
       <c r="AI300" s="4"/>
     </row>
-    <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -30904,7 +30949,7 @@
       <c r="AH301" s="4"/>
       <c r="AI301" s="4"/>
     </row>
-    <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -30941,7 +30986,7 @@
       <c r="AH302" s="4"/>
       <c r="AI302" s="4"/>
     </row>
-    <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -30978,7 +31023,7 @@
       <c r="AH303" s="4"/>
       <c r="AI303" s="4"/>
     </row>
-    <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -31015,7 +31060,7 @@
       <c r="AH304" s="4"/>
       <c r="AI304" s="4"/>
     </row>
-    <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -31052,7 +31097,7 @@
       <c r="AH305" s="4"/>
       <c r="AI305" s="4"/>
     </row>
-    <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -31089,7 +31134,7 @@
       <c r="AH306" s="4"/>
       <c r="AI306" s="4"/>
     </row>
-    <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -31126,7 +31171,7 @@
       <c r="AH307" s="4"/>
       <c r="AI307" s="4"/>
     </row>
-    <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -31163,7 +31208,7 @@
       <c r="AH308" s="4"/>
       <c r="AI308" s="4"/>
     </row>
-    <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -31200,7 +31245,7 @@
       <c r="AH309" s="4"/>
       <c r="AI309" s="4"/>
     </row>
-    <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -31237,7 +31282,7 @@
       <c r="AH310" s="4"/>
       <c r="AI310" s="4"/>
     </row>
-    <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -31274,7 +31319,7 @@
       <c r="AH311" s="4"/>
       <c r="AI311" s="4"/>
     </row>
-    <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -31311,7 +31356,7 @@
       <c r="AH312" s="4"/>
       <c r="AI312" s="4"/>
     </row>
-    <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -31348,7 +31393,7 @@
       <c r="AH313" s="4"/>
       <c r="AI313" s="4"/>
     </row>
-    <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -31385,7 +31430,7 @@
       <c r="AH314" s="4"/>
       <c r="AI314" s="4"/>
     </row>
-    <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -31422,7 +31467,7 @@
       <c r="AH315" s="4"/>
       <c r="AI315" s="4"/>
     </row>
-    <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -31459,7 +31504,7 @@
       <c r="AH316" s="4"/>
       <c r="AI316" s="4"/>
     </row>
-    <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -31496,7 +31541,7 @@
       <c r="AH317" s="4"/>
       <c r="AI317" s="4"/>
     </row>
-    <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -31533,7 +31578,7 @@
       <c r="AH318" s="4"/>
       <c r="AI318" s="4"/>
     </row>
-    <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -31570,7 +31615,7 @@
       <c r="AH319" s="4"/>
       <c r="AI319" s="4"/>
     </row>
-    <row r="320" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -31607,7 +31652,7 @@
       <c r="AH320" s="4"/>
       <c r="AI320" s="4"/>
     </row>
-    <row r="321" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -31644,7 +31689,7 @@
       <c r="AH321" s="4"/>
       <c r="AI321" s="4"/>
     </row>
-    <row r="322" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -31681,7 +31726,7 @@
       <c r="AH322" s="4"/>
       <c r="AI322" s="4"/>
     </row>
-    <row r="323" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -31718,7 +31763,7 @@
       <c r="AH323" s="4"/>
       <c r="AI323" s="4"/>
     </row>
-    <row r="324" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -31755,7 +31800,7 @@
       <c r="AH324" s="4"/>
       <c r="AI324" s="4"/>
     </row>
-    <row r="325" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -31792,7 +31837,7 @@
       <c r="AH325" s="4"/>
       <c r="AI325" s="4"/>
     </row>
-    <row r="326" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -31829,7 +31874,7 @@
       <c r="AH326" s="4"/>
       <c r="AI326" s="4"/>
     </row>
-    <row r="327" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -31866,7 +31911,7 @@
       <c r="AH327" s="4"/>
       <c r="AI327" s="4"/>
     </row>
-    <row r="328" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -31903,7 +31948,7 @@
       <c r="AH328" s="4"/>
       <c r="AI328" s="4"/>
     </row>
-    <row r="329" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -31940,7 +31985,7 @@
       <c r="AH329" s="4"/>
       <c r="AI329" s="4"/>
     </row>
-    <row r="330" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -31977,7 +32022,7 @@
       <c r="AH330" s="4"/>
       <c r="AI330" s="4"/>
     </row>
-    <row r="331" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -32014,7 +32059,7 @@
       <c r="AH331" s="4"/>
       <c r="AI331" s="4"/>
     </row>
-    <row r="332" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -32051,7 +32096,7 @@
       <c r="AH332" s="4"/>
       <c r="AI332" s="4"/>
     </row>
-    <row r="333" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -32088,7 +32133,7 @@
       <c r="AH333" s="4"/>
       <c r="AI333" s="4"/>
     </row>
-    <row r="334" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -32125,7 +32170,7 @@
       <c r="AH334" s="4"/>
       <c r="AI334" s="4"/>
     </row>
-    <row r="335" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -32162,7 +32207,7 @@
       <c r="AH335" s="4"/>
       <c r="AI335" s="4"/>
     </row>
-    <row r="336" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -32199,7 +32244,7 @@
       <c r="AH336" s="4"/>
       <c r="AI336" s="4"/>
     </row>
-    <row r="337" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -32236,7 +32281,7 @@
       <c r="AH337" s="4"/>
       <c r="AI337" s="4"/>
     </row>
-    <row r="338" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -32273,7 +32318,7 @@
       <c r="AH338" s="4"/>
       <c r="AI338" s="4"/>
     </row>
-    <row r="339" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -32310,7 +32355,7 @@
       <c r="AH339" s="4"/>
       <c r="AI339" s="4"/>
     </row>
-    <row r="340" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -32347,7 +32392,7 @@
       <c r="AH340" s="4"/>
       <c r="AI340" s="4"/>
     </row>
-    <row r="341" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -32384,7 +32429,7 @@
       <c r="AH341" s="4"/>
       <c r="AI341" s="4"/>
     </row>
-    <row r="342" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -32421,7 +32466,7 @@
       <c r="AH342" s="4"/>
       <c r="AI342" s="4"/>
     </row>
-    <row r="343" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -32458,7 +32503,7 @@
       <c r="AH343" s="4"/>
       <c r="AI343" s="4"/>
     </row>
-    <row r="344" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -32495,7 +32540,7 @@
       <c r="AH344" s="4"/>
       <c r="AI344" s="4"/>
     </row>
-    <row r="345" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -32532,7 +32577,7 @@
       <c r="AH345" s="4"/>
       <c r="AI345" s="4"/>
     </row>
-    <row r="346" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -32569,7 +32614,7 @@
       <c r="AH346" s="4"/>
       <c r="AI346" s="4"/>
     </row>
-    <row r="347" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -32606,7 +32651,7 @@
       <c r="AH347" s="4"/>
       <c r="AI347" s="4"/>
     </row>
-    <row r="348" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -32643,7 +32688,7 @@
       <c r="AH348" s="4"/>
       <c r="AI348" s="4"/>
     </row>
-    <row r="349" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -32680,7 +32725,7 @@
       <c r="AH349" s="4"/>
       <c r="AI349" s="4"/>
     </row>
-    <row r="350" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -32717,7 +32762,7 @@
       <c r="AH350" s="4"/>
       <c r="AI350" s="4"/>
     </row>
-    <row r="351" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -32754,7 +32799,7 @@
       <c r="AH351" s="4"/>
       <c r="AI351" s="4"/>
     </row>
-    <row r="352" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -32791,7 +32836,7 @@
       <c r="AH352" s="4"/>
       <c r="AI352" s="4"/>
     </row>
-    <row r="353" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -32828,7 +32873,7 @@
       <c r="AH353" s="4"/>
       <c r="AI353" s="4"/>
     </row>
-    <row r="354" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -32865,7 +32910,7 @@
       <c r="AH354" s="4"/>
       <c r="AI354" s="4"/>
     </row>
-    <row r="355" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -32902,7 +32947,7 @@
       <c r="AH355" s="4"/>
       <c r="AI355" s="4"/>
     </row>
-    <row r="356" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -32939,7 +32984,7 @@
       <c r="AH356" s="4"/>
       <c r="AI356" s="4"/>
     </row>
-    <row r="357" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -32976,7 +33021,7 @@
       <c r="AH357" s="4"/>
       <c r="AI357" s="4"/>
     </row>
-    <row r="358" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -33013,7 +33058,7 @@
       <c r="AH358" s="4"/>
       <c r="AI358" s="4"/>
     </row>
-    <row r="359" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -33050,7 +33095,7 @@
       <c r="AH359" s="4"/>
       <c r="AI359" s="4"/>
     </row>
-    <row r="360" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -33087,7 +33132,7 @@
       <c r="AH360" s="4"/>
       <c r="AI360" s="4"/>
     </row>
-    <row r="361" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -33124,7 +33169,7 @@
       <c r="AH361" s="4"/>
       <c r="AI361" s="4"/>
     </row>
-    <row r="362" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -33161,7 +33206,7 @@
       <c r="AH362" s="4"/>
       <c r="AI362" s="4"/>
     </row>
-    <row r="363" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -33198,7 +33243,7 @@
       <c r="AH363" s="4"/>
       <c r="AI363" s="4"/>
     </row>
-    <row r="364" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -33235,7 +33280,7 @@
       <c r="AH364" s="4"/>
       <c r="AI364" s="4"/>
     </row>
-    <row r="365" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -33272,7 +33317,7 @@
       <c r="AH365" s="4"/>
       <c r="AI365" s="4"/>
     </row>
-    <row r="366" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -33309,7 +33354,7 @@
       <c r="AH366" s="4"/>
       <c r="AI366" s="4"/>
     </row>
-    <row r="367" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -33346,7 +33391,7 @@
       <c r="AH367" s="4"/>
       <c r="AI367" s="4"/>
     </row>
-    <row r="368" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -33383,7 +33428,7 @@
       <c r="AH368" s="4"/>
       <c r="AI368" s="4"/>
     </row>
-    <row r="369" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -33420,7 +33465,7 @@
       <c r="AH369" s="4"/>
       <c r="AI369" s="4"/>
     </row>
-    <row r="370" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -33457,7 +33502,7 @@
       <c r="AH370" s="4"/>
       <c r="AI370" s="4"/>
     </row>
-    <row r="371" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -33494,7 +33539,7 @@
       <c r="AH371" s="4"/>
       <c r="AI371" s="4"/>
     </row>
-    <row r="372" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -33531,7 +33576,7 @@
       <c r="AH372" s="4"/>
       <c r="AI372" s="4"/>
     </row>
-    <row r="373" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -33568,7 +33613,7 @@
       <c r="AH373" s="4"/>
       <c r="AI373" s="4"/>
     </row>
-    <row r="374" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -33605,7 +33650,7 @@
       <c r="AH374" s="4"/>
       <c r="AI374" s="4"/>
     </row>
-    <row r="375" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -33642,7 +33687,7 @@
       <c r="AH375" s="4"/>
       <c r="AI375" s="4"/>
     </row>
-    <row r="376" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -33679,7 +33724,7 @@
       <c r="AH376" s="4"/>
       <c r="AI376" s="4"/>
     </row>
-    <row r="377" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -33716,7 +33761,7 @@
       <c r="AH377" s="4"/>
       <c r="AI377" s="4"/>
     </row>
-    <row r="378" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -33753,7 +33798,7 @@
       <c r="AH378" s="4"/>
       <c r="AI378" s="4"/>
     </row>
-    <row r="379" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -33790,7 +33835,7 @@
       <c r="AH379" s="4"/>
       <c r="AI379" s="4"/>
     </row>
-    <row r="380" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -33827,7 +33872,7 @@
       <c r="AH380" s="4"/>
       <c r="AI380" s="4"/>
     </row>
-    <row r="381" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -33864,7 +33909,7 @@
       <c r="AH381" s="4"/>
       <c r="AI381" s="4"/>
     </row>
-    <row r="382" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -33901,7 +33946,7 @@
       <c r="AH382" s="4"/>
       <c r="AI382" s="4"/>
     </row>
-    <row r="383" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -33938,7 +33983,7 @@
       <c r="AH383" s="4"/>
       <c r="AI383" s="4"/>
     </row>
-    <row r="384" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -33975,7 +34020,7 @@
       <c r="AH384" s="4"/>
       <c r="AI384" s="4"/>
     </row>
-    <row r="385" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -34012,7 +34057,7 @@
       <c r="AH385" s="4"/>
       <c r="AI385" s="4"/>
     </row>
-    <row r="386" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -34049,7 +34094,7 @@
       <c r="AH386" s="4"/>
       <c r="AI386" s="4"/>
     </row>
-    <row r="387" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -34086,7 +34131,7 @@
       <c r="AH387" s="4"/>
       <c r="AI387" s="4"/>
     </row>
-    <row r="388" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -34123,7 +34168,7 @@
       <c r="AH388" s="4"/>
       <c r="AI388" s="4"/>
     </row>
-    <row r="389" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -34160,7 +34205,7 @@
       <c r="AH389" s="4"/>
       <c r="AI389" s="4"/>
     </row>
-    <row r="390" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -34197,7 +34242,7 @@
       <c r="AH390" s="4"/>
       <c r="AI390" s="4"/>
     </row>
-    <row r="391" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -34234,7 +34279,7 @@
       <c r="AH391" s="4"/>
       <c r="AI391" s="4"/>
     </row>
-    <row r="392" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -34271,7 +34316,7 @@
       <c r="AH392" s="4"/>
       <c r="AI392" s="4"/>
     </row>
-    <row r="393" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -34308,7 +34353,7 @@
       <c r="AH393" s="4"/>
       <c r="AI393" s="4"/>
     </row>
-    <row r="394" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -34345,7 +34390,7 @@
       <c r="AH394" s="4"/>
       <c r="AI394" s="4"/>
     </row>
-    <row r="395" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -34382,7 +34427,7 @@
       <c r="AH395" s="4"/>
       <c r="AI395" s="4"/>
     </row>
-    <row r="396" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -34419,7 +34464,7 @@
       <c r="AH396" s="4"/>
       <c r="AI396" s="4"/>
     </row>
-    <row r="397" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -34456,7 +34501,7 @@
       <c r="AH397" s="4"/>
       <c r="AI397" s="4"/>
     </row>
-    <row r="398" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -34493,7 +34538,7 @@
       <c r="AH398" s="4"/>
       <c r="AI398" s="4"/>
     </row>
-    <row r="399" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -34530,7 +34575,7 @@
       <c r="AH399" s="4"/>
       <c r="AI399" s="4"/>
     </row>
-    <row r="400" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -34567,7 +34612,7 @@
       <c r="AH400" s="4"/>
       <c r="AI400" s="4"/>
     </row>
-    <row r="401" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -34604,7 +34649,7 @@
       <c r="AH401" s="4"/>
       <c r="AI401" s="4"/>
     </row>
-    <row r="402" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -34641,7 +34686,7 @@
       <c r="AH402" s="4"/>
       <c r="AI402" s="4"/>
     </row>
-    <row r="403" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -34678,7 +34723,7 @@
       <c r="AH403" s="4"/>
       <c r="AI403" s="4"/>
     </row>
-    <row r="404" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -34715,7 +34760,7 @@
       <c r="AH404" s="4"/>
       <c r="AI404" s="4"/>
     </row>
-    <row r="405" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -34752,7 +34797,7 @@
       <c r="AH405" s="4"/>
       <c r="AI405" s="4"/>
     </row>
-    <row r="406" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -34789,7 +34834,7 @@
       <c r="AH406" s="4"/>
       <c r="AI406" s="4"/>
     </row>
-    <row r="407" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -34826,7 +34871,7 @@
       <c r="AH407" s="4"/>
       <c r="AI407" s="4"/>
     </row>
-    <row r="408" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -34863,7 +34908,7 @@
       <c r="AH408" s="4"/>
       <c r="AI408" s="4"/>
     </row>
-    <row r="409" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -34900,7 +34945,7 @@
       <c r="AH409" s="4"/>
       <c r="AI409" s="4"/>
     </row>
-    <row r="410" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -34937,7 +34982,7 @@
       <c r="AH410" s="4"/>
       <c r="AI410" s="4"/>
     </row>
-    <row r="411" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -34974,7 +35019,7 @@
       <c r="AH411" s="4"/>
       <c r="AI411" s="4"/>
     </row>
-    <row r="412" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -35011,7 +35056,7 @@
       <c r="AH412" s="4"/>
       <c r="AI412" s="4"/>
     </row>
-    <row r="413" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -35048,7 +35093,7 @@
       <c r="AH413" s="4"/>
       <c r="AI413" s="4"/>
     </row>
-    <row r="414" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -35085,7 +35130,7 @@
       <c r="AH414" s="4"/>
       <c r="AI414" s="4"/>
     </row>
-    <row r="415" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -35122,7 +35167,7 @@
       <c r="AH415" s="4"/>
       <c r="AI415" s="4"/>
     </row>
-    <row r="416" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -35159,7 +35204,7 @@
       <c r="AH416" s="4"/>
       <c r="AI416" s="4"/>
     </row>
-    <row r="417" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -35196,7 +35241,7 @@
       <c r="AH417" s="4"/>
       <c r="AI417" s="4"/>
     </row>
-    <row r="418" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -35233,7 +35278,7 @@
       <c r="AH418" s="4"/>
       <c r="AI418" s="4"/>
     </row>
-    <row r="419" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -35270,7 +35315,7 @@
       <c r="AH419" s="4"/>
       <c r="AI419" s="4"/>
     </row>
-    <row r="420" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -35307,7 +35352,7 @@
       <c r="AH420" s="4"/>
       <c r="AI420" s="4"/>
     </row>
-    <row r="421" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -35344,7 +35389,7 @@
       <c r="AH421" s="4"/>
       <c r="AI421" s="4"/>
     </row>
-    <row r="422" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -35381,7 +35426,7 @@
       <c r="AH422" s="4"/>
       <c r="AI422" s="4"/>
     </row>
-    <row r="423" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -35418,7 +35463,7 @@
       <c r="AH423" s="4"/>
       <c r="AI423" s="4"/>
     </row>
-    <row r="424" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -35455,7 +35500,7 @@
       <c r="AH424" s="4"/>
       <c r="AI424" s="4"/>
     </row>
-    <row r="425" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -35492,7 +35537,7 @@
       <c r="AH425" s="4"/>
       <c r="AI425" s="4"/>
     </row>
-    <row r="426" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -35529,7 +35574,7 @@
       <c r="AH426" s="4"/>
       <c r="AI426" s="4"/>
     </row>
-    <row r="427" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -35566,7 +35611,7 @@
       <c r="AH427" s="4"/>
       <c r="AI427" s="4"/>
     </row>
-    <row r="428" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -35603,7 +35648,7 @@
       <c r="AH428" s="4"/>
       <c r="AI428" s="4"/>
     </row>
-    <row r="429" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -35640,7 +35685,7 @@
       <c r="AH429" s="4"/>
       <c r="AI429" s="4"/>
     </row>
-    <row r="430" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -35677,7 +35722,7 @@
       <c r="AH430" s="4"/>
       <c r="AI430" s="4"/>
     </row>
-    <row r="431" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -35714,7 +35759,7 @@
       <c r="AH431" s="4"/>
       <c r="AI431" s="4"/>
     </row>
-    <row r="432" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -35751,7 +35796,7 @@
       <c r="AH432" s="4"/>
       <c r="AI432" s="4"/>
     </row>
-    <row r="433" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -35788,7 +35833,7 @@
       <c r="AH433" s="4"/>
       <c r="AI433" s="4"/>
     </row>
-    <row r="434" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -35825,7 +35870,7 @@
       <c r="AH434" s="4"/>
       <c r="AI434" s="4"/>
     </row>
-    <row r="435" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -35862,7 +35907,7 @@
       <c r="AH435" s="4"/>
       <c r="AI435" s="4"/>
     </row>
-    <row r="436" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -35899,7 +35944,7 @@
       <c r="AH436" s="4"/>
       <c r="AI436" s="4"/>
     </row>
-    <row r="437" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -35936,7 +35981,7 @@
       <c r="AH437" s="4"/>
       <c r="AI437" s="4"/>
     </row>
-    <row r="438" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -35973,7 +36018,7 @@
       <c r="AH438" s="4"/>
       <c r="AI438" s="4"/>
     </row>
-    <row r="439" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -36010,7 +36055,7 @@
       <c r="AH439" s="4"/>
       <c r="AI439" s="4"/>
     </row>
-    <row r="440" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -36047,7 +36092,7 @@
       <c r="AH440" s="4"/>
       <c r="AI440" s="4"/>
     </row>
-    <row r="441" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -36084,7 +36129,7 @@
       <c r="AH441" s="4"/>
       <c r="AI441" s="4"/>
     </row>
-    <row r="442" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -36121,7 +36166,7 @@
       <c r="AH442" s="4"/>
       <c r="AI442" s="4"/>
     </row>
-    <row r="443" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -36158,7 +36203,7 @@
       <c r="AH443" s="4"/>
       <c r="AI443" s="4"/>
     </row>
-    <row r="444" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -36195,7 +36240,7 @@
       <c r="AH444" s="4"/>
       <c r="AI444" s="4"/>
     </row>
-    <row r="445" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -36232,7 +36277,7 @@
       <c r="AH445" s="4"/>
       <c r="AI445" s="4"/>
     </row>
-    <row r="446" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -36269,7 +36314,7 @@
       <c r="AH446" s="4"/>
       <c r="AI446" s="4"/>
     </row>
-    <row r="447" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -36306,7 +36351,7 @@
       <c r="AH447" s="4"/>
       <c r="AI447" s="4"/>
     </row>
-    <row r="448" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -36343,7 +36388,7 @@
       <c r="AH448" s="4"/>
       <c r="AI448" s="4"/>
     </row>
-    <row r="449" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -36380,7 +36425,7 @@
       <c r="AH449" s="4"/>
       <c r="AI449" s="4"/>
     </row>
-    <row r="450" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -36417,7 +36462,7 @@
       <c r="AH450" s="4"/>
       <c r="AI450" s="4"/>
     </row>
-    <row r="451" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -36454,7 +36499,7 @@
       <c r="AH451" s="4"/>
       <c r="AI451" s="4"/>
     </row>
-    <row r="452" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -36491,7 +36536,7 @@
       <c r="AH452" s="4"/>
       <c r="AI452" s="4"/>
     </row>
-    <row r="453" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -36528,7 +36573,7 @@
       <c r="AH453" s="4"/>
       <c r="AI453" s="4"/>
     </row>
-    <row r="454" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -36565,7 +36610,7 @@
       <c r="AH454" s="4"/>
       <c r="AI454" s="4"/>
     </row>
-    <row r="455" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -36602,7 +36647,7 @@
       <c r="AH455" s="4"/>
       <c r="AI455" s="4"/>
     </row>
-    <row r="456" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -36639,7 +36684,7 @@
       <c r="AH456" s="4"/>
       <c r="AI456" s="4"/>
     </row>
-    <row r="457" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -36676,7 +36721,7 @@
       <c r="AH457" s="4"/>
       <c r="AI457" s="4"/>
     </row>
-    <row r="458" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -36713,7 +36758,7 @@
       <c r="AH458" s="4"/>
       <c r="AI458" s="4"/>
     </row>
-    <row r="459" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -36750,7 +36795,7 @@
       <c r="AH459" s="4"/>
       <c r="AI459" s="4"/>
     </row>
-    <row r="460" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -36787,7 +36832,7 @@
       <c r="AH460" s="4"/>
       <c r="AI460" s="4"/>
     </row>
-    <row r="461" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -36824,7 +36869,7 @@
       <c r="AH461" s="4"/>
       <c r="AI461" s="4"/>
     </row>
-    <row r="462" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -36861,7 +36906,7 @@
       <c r="AH462" s="4"/>
       <c r="AI462" s="4"/>
     </row>
-    <row r="463" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -36898,7 +36943,7 @@
       <c r="AH463" s="4"/>
       <c r="AI463" s="4"/>
     </row>
-    <row r="464" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -36935,7 +36980,7 @@
       <c r="AH464" s="4"/>
       <c r="AI464" s="4"/>
     </row>
-    <row r="465" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -36972,7 +37017,7 @@
       <c r="AH465" s="4"/>
       <c r="AI465" s="4"/>
     </row>
-    <row r="466" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -37009,7 +37054,7 @@
       <c r="AH466" s="4"/>
       <c r="AI466" s="4"/>
     </row>
-    <row r="467" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -37046,7 +37091,7 @@
       <c r="AH467" s="4"/>
       <c r="AI467" s="4"/>
     </row>
-    <row r="468" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -37083,7 +37128,7 @@
       <c r="AH468" s="4"/>
       <c r="AI468" s="4"/>
     </row>
-    <row r="469" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -37120,7 +37165,7 @@
       <c r="AH469" s="4"/>
       <c r="AI469" s="4"/>
     </row>
-    <row r="470" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -37157,7 +37202,7 @@
       <c r="AH470" s="4"/>
       <c r="AI470" s="4"/>
     </row>
-    <row r="471" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -37194,7 +37239,7 @@
       <c r="AH471" s="4"/>
       <c r="AI471" s="4"/>
     </row>
-    <row r="472" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -37231,7 +37276,7 @@
       <c r="AH472" s="4"/>
       <c r="AI472" s="4"/>
     </row>
-    <row r="473" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -37268,7 +37313,7 @@
       <c r="AH473" s="4"/>
       <c r="AI473" s="4"/>
     </row>
-    <row r="474" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -37305,7 +37350,7 @@
       <c r="AH474" s="4"/>
       <c r="AI474" s="4"/>
     </row>
-    <row r="475" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -37342,7 +37387,7 @@
       <c r="AH475" s="4"/>
       <c r="AI475" s="4"/>
     </row>
-    <row r="476" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -37379,7 +37424,7 @@
       <c r="AH476" s="4"/>
       <c r="AI476" s="4"/>
     </row>
-    <row r="477" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -37416,7 +37461,7 @@
       <c r="AH477" s="4"/>
       <c r="AI477" s="4"/>
     </row>
-    <row r="478" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -37453,7 +37498,7 @@
       <c r="AH478" s="4"/>
       <c r="AI478" s="4"/>
     </row>
-    <row r="479" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -37490,7 +37535,7 @@
       <c r="AH479" s="4"/>
       <c r="AI479" s="4"/>
     </row>
-    <row r="480" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -37527,7 +37572,7 @@
       <c r="AH480" s="4"/>
       <c r="AI480" s="4"/>
     </row>
-    <row r="481" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -37564,7 +37609,7 @@
       <c r="AH481" s="4"/>
       <c r="AI481" s="4"/>
     </row>
-    <row r="482" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -37601,7 +37646,7 @@
       <c r="AH482" s="4"/>
       <c r="AI482" s="4"/>
     </row>
-    <row r="483" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -37638,7 +37683,7 @@
       <c r="AH483" s="4"/>
       <c r="AI483" s="4"/>
     </row>
-    <row r="484" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -37675,7 +37720,7 @@
       <c r="AH484" s="4"/>
       <c r="AI484" s="4"/>
     </row>
-    <row r="485" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -37712,7 +37757,7 @@
       <c r="AH485" s="4"/>
       <c r="AI485" s="4"/>
     </row>
-    <row r="486" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -37749,7 +37794,7 @@
       <c r="AH486" s="4"/>
       <c r="AI486" s="4"/>
     </row>
-    <row r="487" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -37786,7 +37831,7 @@
       <c r="AH487" s="4"/>
       <c r="AI487" s="4"/>
     </row>
-    <row r="488" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -37823,7 +37868,7 @@
       <c r="AH488" s="4"/>
       <c r="AI488" s="4"/>
     </row>
-    <row r="489" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -37860,7 +37905,7 @@
       <c r="AH489" s="4"/>
       <c r="AI489" s="4"/>
     </row>
-    <row r="490" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -37897,7 +37942,7 @@
       <c r="AH490" s="4"/>
       <c r="AI490" s="4"/>
     </row>
-    <row r="491" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -37934,7 +37979,7 @@
       <c r="AH491" s="4"/>
       <c r="AI491" s="4"/>
     </row>
-    <row r="492" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -37971,7 +38016,7 @@
       <c r="AH492" s="4"/>
       <c r="AI492" s="4"/>
     </row>
-    <row r="493" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -38008,7 +38053,7 @@
       <c r="AH493" s="4"/>
       <c r="AI493" s="4"/>
     </row>
-    <row r="494" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -38045,7 +38090,7 @@
       <c r="AH494" s="4"/>
       <c r="AI494" s="4"/>
     </row>
-    <row r="495" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -38082,7 +38127,7 @@
       <c r="AH495" s="4"/>
       <c r="AI495" s="4"/>
     </row>
-    <row r="496" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -38119,7 +38164,7 @@
       <c r="AH496" s="4"/>
       <c r="AI496" s="4"/>
     </row>
-    <row r="497" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -38156,7 +38201,7 @@
       <c r="AH497" s="4"/>
       <c r="AI497" s="4"/>
     </row>
-    <row r="498" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -38193,7 +38238,7 @@
       <c r="AH498" s="4"/>
       <c r="AI498" s="4"/>
     </row>
-    <row r="499" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -38230,7 +38275,7 @@
       <c r="AH499" s="4"/>
       <c r="AI499" s="4"/>
     </row>
-    <row r="500" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -38267,7 +38312,7 @@
       <c r="AH500" s="4"/>
       <c r="AI500" s="4"/>
     </row>
-    <row r="501" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -38304,7 +38349,7 @@
       <c r="AH501" s="4"/>
       <c r="AI501" s="4"/>
     </row>
-    <row r="502" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -38341,7 +38386,7 @@
       <c r="AH502" s="4"/>
       <c r="AI502" s="4"/>
     </row>
-    <row r="503" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -38378,7 +38423,7 @@
       <c r="AH503" s="4"/>
       <c r="AI503" s="4"/>
     </row>
-    <row r="504" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -38415,7 +38460,7 @@
       <c r="AH504" s="4"/>
       <c r="AI504" s="4"/>
     </row>
-    <row r="505" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -38452,7 +38497,7 @@
       <c r="AH505" s="4"/>
       <c r="AI505" s="4"/>
     </row>
-    <row r="506" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -38489,7 +38534,7 @@
       <c r="AH506" s="4"/>
       <c r="AI506" s="4"/>
     </row>
-    <row r="507" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -38526,7 +38571,7 @@
       <c r="AH507" s="4"/>
       <c r="AI507" s="4"/>
     </row>
-    <row r="508" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -38563,7 +38608,7 @@
       <c r="AH508" s="4"/>
       <c r="AI508" s="4"/>
     </row>
-    <row r="509" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -38600,7 +38645,7 @@
       <c r="AH509" s="4"/>
       <c r="AI509" s="4"/>
     </row>
-    <row r="510" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -38637,7 +38682,7 @@
       <c r="AH510" s="4"/>
       <c r="AI510" s="4"/>
     </row>
-    <row r="511" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -38674,7 +38719,7 @@
       <c r="AH511" s="4"/>
       <c r="AI511" s="4"/>
     </row>
-    <row r="512" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -38711,7 +38756,7 @@
       <c r="AH512" s="4"/>
       <c r="AI512" s="4"/>
     </row>
-    <row r="513" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -38748,7 +38793,7 @@
       <c r="AH513" s="4"/>
       <c r="AI513" s="4"/>
     </row>
-    <row r="514" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -38785,7 +38830,7 @@
       <c r="AH514" s="4"/>
       <c r="AI514" s="4"/>
     </row>
-    <row r="515" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -38822,7 +38867,7 @@
       <c r="AH515" s="4"/>
       <c r="AI515" s="4"/>
     </row>
-    <row r="516" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -38859,7 +38904,7 @@
       <c r="AH516" s="4"/>
       <c r="AI516" s="4"/>
     </row>
-    <row r="517" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -38896,7 +38941,7 @@
       <c r="AH517" s="4"/>
       <c r="AI517" s="4"/>
     </row>
-    <row r="518" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -38933,7 +38978,7 @@
       <c r="AH518" s="4"/>
       <c r="AI518" s="4"/>
     </row>
-    <row r="519" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -38970,7 +39015,7 @@
       <c r="AH519" s="4"/>
       <c r="AI519" s="4"/>
     </row>
-    <row r="520" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -39007,7 +39052,7 @@
       <c r="AH520" s="4"/>
       <c r="AI520" s="4"/>
     </row>
-    <row r="521" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -39044,7 +39089,7 @@
       <c r="AH521" s="4"/>
       <c r="AI521" s="4"/>
     </row>
-    <row r="522" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -39081,7 +39126,7 @@
       <c r="AH522" s="4"/>
       <c r="AI522" s="4"/>
     </row>
-    <row r="523" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -39118,7 +39163,7 @@
       <c r="AH523" s="4"/>
       <c r="AI523" s="4"/>
     </row>
-    <row r="524" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -39155,7 +39200,7 @@
       <c r="AH524" s="4"/>
       <c r="AI524" s="4"/>
     </row>
-    <row r="525" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -39192,7 +39237,7 @@
       <c r="AH525" s="4"/>
       <c r="AI525" s="4"/>
     </row>
-    <row r="526" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -39229,7 +39274,7 @@
       <c r="AH526" s="4"/>
       <c r="AI526" s="4"/>
     </row>
-    <row r="527" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -39266,7 +39311,7 @@
       <c r="AH527" s="4"/>
       <c r="AI527" s="4"/>
     </row>
-    <row r="528" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -39303,7 +39348,7 @@
       <c r="AH528" s="4"/>
       <c r="AI528" s="4"/>
     </row>
-    <row r="529" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -39340,7 +39385,7 @@
       <c r="AH529" s="4"/>
       <c r="AI529" s="4"/>
     </row>
-    <row r="530" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -39377,7 +39422,7 @@
       <c r="AH530" s="4"/>
       <c r="AI530" s="4"/>
     </row>
-    <row r="531" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -39414,7 +39459,7 @@
       <c r="AH531" s="4"/>
       <c r="AI531" s="4"/>
     </row>
-    <row r="532" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -39451,7 +39496,7 @@
       <c r="AH532" s="4"/>
       <c r="AI532" s="4"/>
     </row>
-    <row r="533" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -39488,7 +39533,7 @@
       <c r="AH533" s="4"/>
       <c r="AI533" s="4"/>
     </row>
-    <row r="534" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -39525,7 +39570,7 @@
       <c r="AH534" s="4"/>
       <c r="AI534" s="4"/>
     </row>
-    <row r="535" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -39562,7 +39607,7 @@
       <c r="AH535" s="4"/>
       <c r="AI535" s="4"/>
     </row>
-    <row r="536" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -39599,7 +39644,7 @@
       <c r="AH536" s="4"/>
       <c r="AI536" s="4"/>
     </row>
-    <row r="537" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -39636,7 +39681,7 @@
       <c r="AH537" s="4"/>
       <c r="AI537" s="4"/>
     </row>
-    <row r="538" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -39673,7 +39718,7 @@
       <c r="AH538" s="4"/>
       <c r="AI538" s="4"/>
     </row>
-    <row r="539" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -39710,7 +39755,7 @@
       <c r="AH539" s="4"/>
       <c r="AI539" s="4"/>
     </row>
-    <row r="540" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -39747,7 +39792,7 @@
       <c r="AH540" s="4"/>
       <c r="AI540" s="4"/>
     </row>
-    <row r="541" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -39784,7 +39829,7 @@
       <c r="AH541" s="4"/>
       <c r="AI541" s="4"/>
     </row>
-    <row r="542" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -39821,7 +39866,7 @@
       <c r="AH542" s="4"/>
       <c r="AI542" s="4"/>
     </row>
-    <row r="543" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -39858,7 +39903,7 @@
       <c r="AH543" s="4"/>
       <c r="AI543" s="4"/>
     </row>
-    <row r="544" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -39895,7 +39940,7 @@
       <c r="AH544" s="4"/>
       <c r="AI544" s="4"/>
     </row>
-    <row r="545" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -39932,7 +39977,7 @@
       <c r="AH545" s="4"/>
       <c r="AI545" s="4"/>
     </row>
-    <row r="546" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -39969,7 +40014,7 @@
       <c r="AH546" s="4"/>
       <c r="AI546" s="4"/>
     </row>
-    <row r="547" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -40006,7 +40051,7 @@
       <c r="AH547" s="4"/>
       <c r="AI547" s="4"/>
     </row>
-    <row r="548" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -40043,7 +40088,7 @@
       <c r="AH548" s="4"/>
       <c r="AI548" s="4"/>
     </row>
-    <row r="549" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -40080,7 +40125,7 @@
       <c r="AH549" s="4"/>
       <c r="AI549" s="4"/>
     </row>
-    <row r="550" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -40117,7 +40162,7 @@
       <c r="AH550" s="4"/>
       <c r="AI550" s="4"/>
     </row>
-    <row r="551" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -40154,7 +40199,7 @@
       <c r="AH551" s="4"/>
       <c r="AI551" s="4"/>
     </row>
-    <row r="552" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -40191,7 +40236,7 @@
       <c r="AH552" s="4"/>
       <c r="AI552" s="4"/>
     </row>
-    <row r="553" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -40228,7 +40273,7 @@
       <c r="AH553" s="4"/>
       <c r="AI553" s="4"/>
     </row>
-    <row r="554" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -40265,7 +40310,7 @@
       <c r="AH554" s="4"/>
       <c r="AI554" s="4"/>
     </row>
-    <row r="555" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -40302,7 +40347,7 @@
       <c r="AH555" s="4"/>
       <c r="AI555" s="4"/>
     </row>
-    <row r="556" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -40339,7 +40384,7 @@
       <c r="AH556" s="4"/>
       <c r="AI556" s="4"/>
     </row>
-    <row r="557" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -40376,7 +40421,7 @@
       <c r="AH557" s="4"/>
       <c r="AI557" s="4"/>
     </row>
-    <row r="558" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -40413,7 +40458,7 @@
       <c r="AH558" s="4"/>
       <c r="AI558" s="4"/>
     </row>
-    <row r="559" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -40450,7 +40495,7 @@
       <c r="AH559" s="4"/>
       <c r="AI559" s="4"/>
     </row>
-    <row r="560" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -40487,7 +40532,7 @@
       <c r="AH560" s="4"/>
       <c r="AI560" s="4"/>
     </row>
-    <row r="561" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -40524,7 +40569,7 @@
       <c r="AH561" s="4"/>
       <c r="AI561" s="4"/>
     </row>
-    <row r="562" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -40561,7 +40606,7 @@
       <c r="AH562" s="4"/>
       <c r="AI562" s="4"/>
     </row>
-    <row r="563" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -40598,7 +40643,7 @@
       <c r="AH563" s="4"/>
       <c r="AI563" s="4"/>
     </row>
-    <row r="564" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -40635,7 +40680,7 @@
       <c r="AH564" s="4"/>
       <c r="AI564" s="4"/>
     </row>
-    <row r="565" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -40672,7 +40717,7 @@
       <c r="AH565" s="4"/>
       <c r="AI565" s="4"/>
     </row>
-    <row r="566" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -40709,7 +40754,7 @@
       <c r="AH566" s="4"/>
       <c r="AI566" s="4"/>
     </row>
-    <row r="567" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -40746,7 +40791,7 @@
       <c r="AH567" s="4"/>
       <c r="AI567" s="4"/>
     </row>
-    <row r="568" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -40783,7 +40828,7 @@
       <c r="AH568" s="4"/>
       <c r="AI568" s="4"/>
     </row>
-    <row r="569" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -40820,7 +40865,7 @@
       <c r="AH569" s="4"/>
       <c r="AI569" s="4"/>
     </row>
-    <row r="570" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -40857,7 +40902,7 @@
       <c r="AH570" s="4"/>
       <c r="AI570" s="4"/>
     </row>
-    <row r="571" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -40894,7 +40939,7 @@
       <c r="AH571" s="4"/>
       <c r="AI571" s="4"/>
     </row>
-    <row r="572" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -40931,7 +40976,7 @@
       <c r="AH572" s="4"/>
       <c r="AI572" s="4"/>
     </row>
-    <row r="573" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -40968,7 +41013,7 @@
       <c r="AH573" s="4"/>
       <c r="AI573" s="4"/>
     </row>
-    <row r="574" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -41005,7 +41050,7 @@
       <c r="AH574" s="4"/>
       <c r="AI574" s="4"/>
     </row>
-    <row r="575" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -41042,7 +41087,7 @@
       <c r="AH575" s="4"/>
       <c r="AI575" s="4"/>
     </row>
-    <row r="576" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -41079,7 +41124,7 @@
       <c r="AH576" s="4"/>
       <c r="AI576" s="4"/>
     </row>
-    <row r="577" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -41116,7 +41161,7 @@
       <c r="AH577" s="4"/>
       <c r="AI577" s="4"/>
     </row>
-    <row r="578" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -41153,7 +41198,7 @@
       <c r="AH578" s="4"/>
       <c r="AI578" s="4"/>
     </row>
-    <row r="579" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -41190,7 +41235,7 @@
       <c r="AH579" s="4"/>
       <c r="AI579" s="4"/>
     </row>
-    <row r="580" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -41227,7 +41272,7 @@
       <c r="AH580" s="4"/>
       <c r="AI580" s="4"/>
     </row>
-    <row r="581" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -41264,7 +41309,7 @@
       <c r="AH581" s="4"/>
       <c r="AI581" s="4"/>
     </row>
-    <row r="582" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -41301,7 +41346,7 @@
       <c r="AH582" s="4"/>
       <c r="AI582" s="4"/>
     </row>
-    <row r="583" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -41338,7 +41383,7 @@
       <c r="AH583" s="4"/>
       <c r="AI583" s="4"/>
     </row>
-    <row r="584" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -41375,7 +41420,7 @@
       <c r="AH584" s="4"/>
       <c r="AI584" s="4"/>
     </row>
-    <row r="585" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -41412,7 +41457,7 @@
       <c r="AH585" s="4"/>
       <c r="AI585" s="4"/>
     </row>
-    <row r="586" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -41449,7 +41494,7 @@
       <c r="AH586" s="4"/>
       <c r="AI586" s="4"/>
     </row>
-    <row r="587" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -41486,7 +41531,7 @@
       <c r="AH587" s="4"/>
       <c r="AI587" s="4"/>
     </row>
-    <row r="588" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -41523,7 +41568,7 @@
       <c r="AH588" s="4"/>
       <c r="AI588" s="4"/>
     </row>
-    <row r="589" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -41560,7 +41605,7 @@
       <c r="AH589" s="4"/>
       <c r="AI589" s="4"/>
     </row>
-    <row r="590" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -41597,7 +41642,7 @@
       <c r="AH590" s="4"/>
       <c r="AI590" s="4"/>
     </row>
-    <row r="591" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -41634,7 +41679,7 @@
       <c r="AH591" s="4"/>
       <c r="AI591" s="4"/>
     </row>
-    <row r="592" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -41671,7 +41716,7 @@
       <c r="AH592" s="4"/>
       <c r="AI592" s="4"/>
     </row>
-    <row r="593" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -41708,7 +41753,7 @@
       <c r="AH593" s="4"/>
       <c r="AI593" s="4"/>
     </row>
-    <row r="594" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -41745,7 +41790,7 @@
       <c r="AH594" s="4"/>
       <c r="AI594" s="4"/>
     </row>
-    <row r="595" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -41782,7 +41827,7 @@
       <c r="AH595" s="4"/>
       <c r="AI595" s="4"/>
     </row>
-    <row r="596" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -41819,7 +41864,7 @@
       <c r="AH596" s="4"/>
       <c r="AI596" s="4"/>
     </row>
-    <row r="597" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -41856,7 +41901,7 @@
       <c r="AH597" s="4"/>
       <c r="AI597" s="4"/>
     </row>
-    <row r="598" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -41893,7 +41938,7 @@
       <c r="AH598" s="4"/>
       <c r="AI598" s="4"/>
     </row>
-    <row r="599" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -41930,7 +41975,7 @@
       <c r="AH599" s="4"/>
       <c r="AI599" s="4"/>
     </row>
-    <row r="600" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -41967,7 +42012,7 @@
       <c r="AH600" s="4"/>
       <c r="AI600" s="4"/>
     </row>
-    <row r="601" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -42004,7 +42049,7 @@
       <c r="AH601" s="4"/>
       <c r="AI601" s="4"/>
     </row>
-    <row r="602" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -42041,7 +42086,7 @@
       <c r="AH602" s="4"/>
       <c r="AI602" s="4"/>
     </row>
-    <row r="603" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -42078,7 +42123,7 @@
       <c r="AH603" s="4"/>
       <c r="AI603" s="4"/>
     </row>
-    <row r="604" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -42115,7 +42160,7 @@
       <c r="AH604" s="4"/>
       <c r="AI604" s="4"/>
     </row>
-    <row r="605" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -42152,7 +42197,7 @@
       <c r="AH605" s="4"/>
       <c r="AI605" s="4"/>
     </row>
-    <row r="606" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -42189,7 +42234,7 @@
       <c r="AH606" s="4"/>
       <c r="AI606" s="4"/>
     </row>
-    <row r="607" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -42226,7 +42271,7 @@
       <c r="AH607" s="4"/>
       <c r="AI607" s="4"/>
     </row>
-    <row r="608" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -42263,7 +42308,7 @@
       <c r="AH608" s="4"/>
       <c r="AI608" s="4"/>
     </row>
-    <row r="609" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -42300,7 +42345,7 @@
       <c r="AH609" s="4"/>
       <c r="AI609" s="4"/>
     </row>
-    <row r="610" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -42337,7 +42382,7 @@
       <c r="AH610" s="4"/>
       <c r="AI610" s="4"/>
     </row>
-    <row r="611" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -42374,7 +42419,7 @@
       <c r="AH611" s="4"/>
       <c r="AI611" s="4"/>
     </row>
-    <row r="612" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -42411,7 +42456,7 @@
       <c r="AH612" s="4"/>
       <c r="AI612" s="4"/>
     </row>
-    <row r="613" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -42448,7 +42493,7 @@
       <c r="AH613" s="4"/>
       <c r="AI613" s="4"/>
     </row>
-    <row r="614" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -42485,7 +42530,7 @@
       <c r="AH614" s="4"/>
       <c r="AI614" s="4"/>
     </row>
-    <row r="615" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -42522,7 +42567,7 @@
       <c r="AH615" s="4"/>
       <c r="AI615" s="4"/>
     </row>
-    <row r="616" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -42559,7 +42604,7 @@
       <c r="AH616" s="4"/>
       <c r="AI616" s="4"/>
     </row>
-    <row r="617" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -42596,7 +42641,7 @@
       <c r="AH617" s="4"/>
       <c r="AI617" s="4"/>
     </row>
-    <row r="618" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -42633,7 +42678,7 @@
       <c r="AH618" s="4"/>
       <c r="AI618" s="4"/>
     </row>
-    <row r="619" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -42670,7 +42715,7 @@
       <c r="AH619" s="4"/>
       <c r="AI619" s="4"/>
     </row>
-    <row r="620" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -42707,7 +42752,7 @@
       <c r="AH620" s="4"/>
       <c r="AI620" s="4"/>
     </row>
-    <row r="621" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -42744,7 +42789,7 @@
       <c r="AH621" s="4"/>
       <c r="AI621" s="4"/>
     </row>
-    <row r="622" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -42781,7 +42826,7 @@
       <c r="AH622" s="4"/>
       <c r="AI622" s="4"/>
     </row>
-    <row r="623" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -42818,7 +42863,7 @@
       <c r="AH623" s="4"/>
       <c r="AI623" s="4"/>
     </row>
-    <row r="624" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -42855,7 +42900,7 @@
       <c r="AH624" s="4"/>
       <c r="AI624" s="4"/>
     </row>
-    <row r="625" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -42892,7 +42937,7 @@
       <c r="AH625" s="4"/>
       <c r="AI625" s="4"/>
     </row>
-    <row r="626" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -42929,7 +42974,7 @@
       <c r="AH626" s="4"/>
       <c r="AI626" s="4"/>
     </row>
-    <row r="627" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -42966,7 +43011,7 @@
       <c r="AH627" s="4"/>
       <c r="AI627" s="4"/>
     </row>
-    <row r="628" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -43003,7 +43048,7 @@
       <c r="AH628" s="4"/>
       <c r="AI628" s="4"/>
     </row>
-    <row r="629" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -43040,7 +43085,7 @@
       <c r="AH629" s="4"/>
       <c r="AI629" s="4"/>
     </row>
-    <row r="630" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -43077,7 +43122,7 @@
       <c r="AH630" s="4"/>
       <c r="AI630" s="4"/>
     </row>
-    <row r="631" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -43114,7 +43159,7 @@
       <c r="AH631" s="4"/>
       <c r="AI631" s="4"/>
     </row>
-    <row r="632" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -43151,7 +43196,7 @@
       <c r="AH632" s="4"/>
       <c r="AI632" s="4"/>
     </row>
-    <row r="633" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -43188,7 +43233,7 @@
       <c r="AH633" s="4"/>
       <c r="AI633" s="4"/>
     </row>
-    <row r="634" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -43225,7 +43270,7 @@
       <c r="AH634" s="4"/>
       <c r="AI634" s="4"/>
     </row>
-    <row r="635" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -43262,7 +43307,7 @@
       <c r="AH635" s="4"/>
       <c r="AI635" s="4"/>
     </row>
-    <row r="636" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -43299,7 +43344,7 @@
       <c r="AH636" s="4"/>
       <c r="AI636" s="4"/>
     </row>
-    <row r="637" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -43336,7 +43381,7 @@
       <c r="AH637" s="4"/>
       <c r="AI637" s="4"/>
     </row>
-    <row r="638" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -43373,7 +43418,7 @@
       <c r="AH638" s="4"/>
       <c r="AI638" s="4"/>
     </row>
-    <row r="639" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -43410,7 +43455,7 @@
       <c r="AH639" s="4"/>
       <c r="AI639" s="4"/>
     </row>
-    <row r="640" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -43447,7 +43492,7 @@
       <c r="AH640" s="4"/>
       <c r="AI640" s="4"/>
     </row>
-    <row r="641" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -43484,7 +43529,7 @@
       <c r="AH641" s="4"/>
       <c r="AI641" s="4"/>
     </row>
-    <row r="642" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -43521,7 +43566,7 @@
       <c r="AH642" s="4"/>
       <c r="AI642" s="4"/>
     </row>
-    <row r="643" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -43558,7 +43603,7 @@
       <c r="AH643" s="4"/>
       <c r="AI643" s="4"/>
     </row>
-    <row r="644" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -43595,7 +43640,7 @@
       <c r="AH644" s="4"/>
       <c r="AI644" s="4"/>
     </row>
-    <row r="645" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -43632,7 +43677,7 @@
       <c r="AH645" s="4"/>
       <c r="AI645" s="4"/>
     </row>
-    <row r="646" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -43669,7 +43714,7 @@
       <c r="AH646" s="4"/>
       <c r="AI646" s="4"/>
     </row>
-    <row r="647" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -43706,7 +43751,7 @@
       <c r="AH647" s="4"/>
       <c r="AI647" s="4"/>
     </row>
-    <row r="648" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -43743,7 +43788,7 @@
       <c r="AH648" s="4"/>
       <c r="AI648" s="4"/>
     </row>
-    <row r="649" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -43780,7 +43825,7 @@
       <c r="AH649" s="4"/>
       <c r="AI649" s="4"/>
     </row>
-    <row r="650" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -43817,7 +43862,7 @@
       <c r="AH650" s="4"/>
       <c r="AI650" s="4"/>
     </row>
-    <row r="651" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -43854,7 +43899,7 @@
       <c r="AH651" s="4"/>
       <c r="AI651" s="4"/>
     </row>
-    <row r="652" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -43891,7 +43936,7 @@
       <c r="AH652" s="4"/>
       <c r="AI652" s="4"/>
     </row>
-    <row r="653" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -43928,7 +43973,7 @@
       <c r="AH653" s="4"/>
       <c r="AI653" s="4"/>
     </row>
-    <row r="654" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -43965,7 +44010,7 @@
       <c r="AH654" s="4"/>
       <c r="AI654" s="4"/>
     </row>
-    <row r="655" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -44002,7 +44047,7 @@
       <c r="AH655" s="4"/>
       <c r="AI655" s="4"/>
     </row>
-    <row r="656" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -44039,7 +44084,7 @@
       <c r="AH656" s="4"/>
       <c r="AI656" s="4"/>
     </row>
-    <row r="657" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -44076,7 +44121,7 @@
       <c r="AH657" s="4"/>
       <c r="AI657" s="4"/>
     </row>
-    <row r="658" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -44113,7 +44158,7 @@
       <c r="AH658" s="4"/>
       <c r="AI658" s="4"/>
     </row>
-    <row r="659" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -44150,7 +44195,7 @@
       <c r="AH659" s="4"/>
       <c r="AI659" s="4"/>
     </row>
-    <row r="660" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -44187,7 +44232,7 @@
       <c r="AH660" s="4"/>
       <c r="AI660" s="4"/>
     </row>
-    <row r="661" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -44224,7 +44269,7 @@
       <c r="AH661" s="4"/>
       <c r="AI661" s="4"/>
     </row>
-    <row r="662" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -44261,7 +44306,7 @@
       <c r="AH662" s="4"/>
       <c r="AI662" s="4"/>
     </row>
-    <row r="663" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -44298,7 +44343,7 @@
       <c r="AH663" s="4"/>
       <c r="AI663" s="4"/>
     </row>
-    <row r="664" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -44335,7 +44380,7 @@
       <c r="AH664" s="4"/>
       <c r="AI664" s="4"/>
     </row>
-    <row r="665" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -44372,7 +44417,7 @@
       <c r="AH665" s="4"/>
       <c r="AI665" s="4"/>
     </row>
-    <row r="666" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -44409,7 +44454,7 @@
       <c r="AH666" s="4"/>
       <c r="AI666" s="4"/>
     </row>
-    <row r="667" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -44446,7 +44491,7 @@
       <c r="AH667" s="4"/>
       <c r="AI667" s="4"/>
     </row>
-    <row r="668" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -44483,7 +44528,7 @@
       <c r="AH668" s="4"/>
       <c r="AI668" s="4"/>
     </row>
-    <row r="669" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -44520,7 +44565,7 @@
       <c r="AH669" s="4"/>
       <c r="AI669" s="4"/>
     </row>
-    <row r="670" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -44557,7 +44602,7 @@
       <c r="AH670" s="4"/>
       <c r="AI670" s="4"/>
     </row>
-    <row r="671" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -44594,7 +44639,7 @@
       <c r="AH671" s="4"/>
       <c r="AI671" s="4"/>
     </row>
-    <row r="672" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -44631,7 +44676,7 @@
       <c r="AH672" s="4"/>
       <c r="AI672" s="4"/>
     </row>
-    <row r="673" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -44668,7 +44713,7 @@
       <c r="AH673" s="4"/>
       <c r="AI673" s="4"/>
     </row>
-    <row r="674" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -44705,7 +44750,7 @@
       <c r="AH674" s="4"/>
       <c r="AI674" s="4"/>
     </row>
-    <row r="675" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -44742,7 +44787,7 @@
       <c r="AH675" s="4"/>
       <c r="AI675" s="4"/>
     </row>
-    <row r="676" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -44779,7 +44824,7 @@
       <c r="AH676" s="4"/>
       <c r="AI676" s="4"/>
     </row>
-    <row r="677" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -44816,7 +44861,7 @@
       <c r="AH677" s="4"/>
       <c r="AI677" s="4"/>
     </row>
-    <row r="678" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -44853,7 +44898,7 @@
       <c r="AH678" s="4"/>
       <c r="AI678" s="4"/>
     </row>
-    <row r="679" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -44890,7 +44935,7 @@
       <c r="AH679" s="4"/>
       <c r="AI679" s="4"/>
     </row>
-    <row r="680" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -44927,7 +44972,7 @@
       <c r="AH680" s="4"/>
       <c r="AI680" s="4"/>
     </row>
-    <row r="681" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -44964,7 +45009,7 @@
       <c r="AH681" s="4"/>
       <c r="AI681" s="4"/>
     </row>
-    <row r="682" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -45001,7 +45046,7 @@
       <c r="AH682" s="4"/>
       <c r="AI682" s="4"/>
     </row>
-    <row r="683" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -45038,7 +45083,7 @@
       <c r="AH683" s="4"/>
       <c r="AI683" s="4"/>
     </row>
-    <row r="684" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -45075,7 +45120,7 @@
       <c r="AH684" s="4"/>
       <c r="AI684" s="4"/>
     </row>
-    <row r="685" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -45112,7 +45157,7 @@
       <c r="AH685" s="4"/>
       <c r="AI685" s="4"/>
     </row>
-    <row r="686" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -45149,7 +45194,7 @@
       <c r="AH686" s="4"/>
       <c r="AI686" s="4"/>
     </row>
-    <row r="687" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -45186,7 +45231,7 @@
       <c r="AH687" s="4"/>
       <c r="AI687" s="4"/>
     </row>
-    <row r="688" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -45223,7 +45268,7 @@
       <c r="AH688" s="4"/>
       <c r="AI688" s="4"/>
     </row>
-    <row r="689" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -45260,7 +45305,7 @@
       <c r="AH689" s="4"/>
       <c r="AI689" s="4"/>
     </row>
-    <row r="690" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -45297,7 +45342,7 @@
       <c r="AH690" s="4"/>
       <c r="AI690" s="4"/>
     </row>
-    <row r="691" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -45334,7 +45379,7 @@
       <c r="AH691" s="4"/>
       <c r="AI691" s="4"/>
     </row>
-    <row r="692" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -45371,7 +45416,7 @@
       <c r="AH692" s="4"/>
       <c r="AI692" s="4"/>
     </row>
-    <row r="693" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -45408,7 +45453,7 @@
       <c r="AH693" s="4"/>
       <c r="AI693" s="4"/>
     </row>
-    <row r="694" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -45445,7 +45490,7 @@
       <c r="AH694" s="4"/>
       <c r="AI694" s="4"/>
     </row>
-    <row r="695" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -45482,7 +45527,7 @@
       <c r="AH695" s="4"/>
       <c r="AI695" s="4"/>
     </row>
-    <row r="696" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -45519,7 +45564,7 @@
       <c r="AH696" s="4"/>
       <c r="AI696" s="4"/>
     </row>
-    <row r="697" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -45556,7 +45601,7 @@
       <c r="AH697" s="4"/>
       <c r="AI697" s="4"/>
     </row>
-    <row r="698" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -45593,7 +45638,7 @@
       <c r="AH698" s="4"/>
       <c r="AI698" s="4"/>
     </row>
-    <row r="699" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -45630,7 +45675,7 @@
       <c r="AH699" s="4"/>
       <c r="AI699" s="4"/>
     </row>
-    <row r="700" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -45667,7 +45712,7 @@
       <c r="AH700" s="4"/>
       <c r="AI700" s="4"/>
     </row>
-    <row r="701" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -45704,7 +45749,7 @@
       <c r="AH701" s="4"/>
       <c r="AI701" s="4"/>
     </row>
-    <row r="702" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -45741,7 +45786,7 @@
       <c r="AH702" s="4"/>
       <c r="AI702" s="4"/>
     </row>
-    <row r="703" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -45778,7 +45823,7 @@
       <c r="AH703" s="4"/>
       <c r="AI703" s="4"/>
     </row>
-    <row r="704" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -45815,7 +45860,7 @@
       <c r="AH704" s="4"/>
       <c r="AI704" s="4"/>
     </row>
-    <row r="705" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -45852,7 +45897,7 @@
       <c r="AH705" s="4"/>
       <c r="AI705" s="4"/>
     </row>
-    <row r="706" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -45889,7 +45934,7 @@
       <c r="AH706" s="4"/>
       <c r="AI706" s="4"/>
     </row>
-    <row r="707" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -45926,7 +45971,7 @@
       <c r="AH707" s="4"/>
       <c r="AI707" s="4"/>
     </row>
-    <row r="708" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -45963,7 +46008,7 @@
       <c r="AH708" s="4"/>
       <c r="AI708" s="4"/>
     </row>
-    <row r="709" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -46000,7 +46045,7 @@
       <c r="AH709" s="4"/>
       <c r="AI709" s="4"/>
     </row>
-    <row r="710" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -46037,7 +46082,7 @@
       <c r="AH710" s="4"/>
       <c r="AI710" s="4"/>
     </row>
-    <row r="711" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -46074,7 +46119,7 @@
       <c r="AH711" s="4"/>
       <c r="AI711" s="4"/>
     </row>
-    <row r="712" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -46111,7 +46156,7 @@
       <c r="AH712" s="4"/>
       <c r="AI712" s="4"/>
     </row>
-    <row r="713" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -46148,7 +46193,7 @@
       <c r="AH713" s="4"/>
       <c r="AI713" s="4"/>
     </row>
-    <row r="714" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -46185,7 +46230,7 @@
       <c r="AH714" s="4"/>
       <c r="AI714" s="4"/>
     </row>
-    <row r="715" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -46222,7 +46267,7 @@
       <c r="AH715" s="4"/>
       <c r="AI715" s="4"/>
     </row>
-    <row r="716" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -46259,7 +46304,7 @@
       <c r="AH716" s="4"/>
       <c r="AI716" s="4"/>
     </row>
-    <row r="717" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -46296,7 +46341,7 @@
       <c r="AH717" s="4"/>
       <c r="AI717" s="4"/>
     </row>
-    <row r="718" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -46333,7 +46378,7 @@
       <c r="AH718" s="4"/>
       <c r="AI718" s="4"/>
     </row>
-    <row r="719" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -46370,7 +46415,7 @@
       <c r="AH719" s="4"/>
       <c r="AI719" s="4"/>
     </row>
-    <row r="720" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -46407,7 +46452,7 @@
       <c r="AH720" s="4"/>
       <c r="AI720" s="4"/>
     </row>
-    <row r="721" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -46444,7 +46489,7 @@
       <c r="AH721" s="4"/>
       <c r="AI721" s="4"/>
     </row>
-    <row r="722" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -46481,7 +46526,7 @@
       <c r="AH722" s="4"/>
       <c r="AI722" s="4"/>
     </row>
-    <row r="723" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -46518,7 +46563,7 @@
       <c r="AH723" s="4"/>
       <c r="AI723" s="4"/>
     </row>
-    <row r="724" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -46555,7 +46600,7 @@
       <c r="AH724" s="4"/>
       <c r="AI724" s="4"/>
     </row>
-    <row r="725" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -46592,7 +46637,7 @@
       <c r="AH725" s="4"/>
       <c r="AI725" s="4"/>
     </row>
-    <row r="726" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -46629,7 +46674,7 @@
       <c r="AH726" s="4"/>
       <c r="AI726" s="4"/>
     </row>
-    <row r="727" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -46666,7 +46711,7 @@
       <c r="AH727" s="4"/>
       <c r="AI727" s="4"/>
     </row>
-    <row r="728" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -46703,7 +46748,7 @@
       <c r="AH728" s="4"/>
       <c r="AI728" s="4"/>
     </row>
-    <row r="729" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -46740,7 +46785,7 @@
       <c r="AH729" s="4"/>
       <c r="AI729" s="4"/>
     </row>
-    <row r="730" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -46777,7 +46822,7 @@
       <c r="AH730" s="4"/>
       <c r="AI730" s="4"/>
     </row>
-    <row r="731" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -46814,7 +46859,7 @@
       <c r="AH731" s="4"/>
       <c r="AI731" s="4"/>
     </row>
-    <row r="732" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -46851,7 +46896,7 @@
       <c r="AH732" s="4"/>
       <c r="AI732" s="4"/>
     </row>
-    <row r="733" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -46888,7 +46933,7 @@
       <c r="AH733" s="4"/>
       <c r="AI733" s="4"/>
     </row>
-    <row r="734" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -46925,7 +46970,7 @@
       <c r="AH734" s="4"/>
       <c r="AI734" s="4"/>
     </row>
-    <row r="735" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -46962,7 +47007,7 @@
       <c r="AH735" s="4"/>
       <c r="AI735" s="4"/>
     </row>
-    <row r="736" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -46999,7 +47044,7 @@
       <c r="AH736" s="4"/>
       <c r="AI736" s="4"/>
     </row>
-    <row r="737" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -47036,7 +47081,7 @@
       <c r="AH737" s="4"/>
       <c r="AI737" s="4"/>
     </row>
-    <row r="738" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -47073,7 +47118,7 @@
       <c r="AH738" s="4"/>
       <c r="AI738" s="4"/>
     </row>
-    <row r="739" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -47110,7 +47155,7 @@
       <c r="AH739" s="4"/>
       <c r="AI739" s="4"/>
     </row>
-    <row r="740" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -47147,7 +47192,7 @@
       <c r="AH740" s="4"/>
       <c r="AI740" s="4"/>
     </row>
-    <row r="741" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -47184,7 +47229,7 @@
       <c r="AH741" s="4"/>
       <c r="AI741" s="4"/>
     </row>
-    <row r="742" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -47221,7 +47266,7 @@
       <c r="AH742" s="4"/>
       <c r="AI742" s="4"/>
     </row>
-    <row r="743" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -47258,7 +47303,7 @@
       <c r="AH743" s="4"/>
       <c r="AI743" s="4"/>
     </row>
-    <row r="744" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -47295,7 +47340,7 @@
       <c r="AH744" s="4"/>
       <c r="AI744" s="4"/>
     </row>
-    <row r="745" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -47332,7 +47377,7 @@
       <c r="AH745" s="4"/>
       <c r="AI745" s="4"/>
     </row>
-    <row r="746" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -47369,7 +47414,7 @@
       <c r="AH746" s="4"/>
       <c r="AI746" s="4"/>
     </row>
-    <row r="747" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -47406,7 +47451,7 @@
       <c r="AH747" s="4"/>
       <c r="AI747" s="4"/>
     </row>
-    <row r="748" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -47443,7 +47488,7 @@
       <c r="AH748" s="4"/>
       <c r="AI748" s="4"/>
     </row>
-    <row r="749" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -47480,7 +47525,7 @@
       <c r="AH749" s="4"/>
       <c r="AI749" s="4"/>
     </row>
-    <row r="750" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -47517,7 +47562,7 @@
       <c r="AH750" s="4"/>
       <c r="AI750" s="4"/>
     </row>
-    <row r="751" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -47554,7 +47599,7 @@
       <c r="AH751" s="4"/>
       <c r="AI751" s="4"/>
     </row>
-    <row r="752" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -47591,7 +47636,7 @@
       <c r="AH752" s="4"/>
       <c r="AI752" s="4"/>
     </row>
-    <row r="753" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -47628,7 +47673,7 @@
       <c r="AH753" s="4"/>
       <c r="AI753" s="4"/>
     </row>
-    <row r="754" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -47665,7 +47710,7 @@
       <c r="AH754" s="4"/>
       <c r="AI754" s="4"/>
     </row>
-    <row r="755" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -47702,7 +47747,7 @@
       <c r="AH755" s="4"/>
       <c r="AI755" s="4"/>
     </row>
-    <row r="756" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -47739,7 +47784,7 @@
       <c r="AH756" s="4"/>
       <c r="AI756" s="4"/>
     </row>
-    <row r="757" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -47776,7 +47821,7 @@
       <c r="AH757" s="4"/>
       <c r="AI757" s="4"/>
     </row>
-    <row r="758" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -47813,7 +47858,7 @@
       <c r="AH758" s="4"/>
       <c r="AI758" s="4"/>
     </row>
-    <row r="759" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -47850,7 +47895,7 @@
       <c r="AH759" s="4"/>
       <c r="AI759" s="4"/>
     </row>
-    <row r="760" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -47887,7 +47932,7 @@
       <c r="AH760" s="4"/>
       <c r="AI760" s="4"/>
     </row>
-    <row r="761" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -47924,7 +47969,7 @@
       <c r="AH761" s="4"/>
       <c r="AI761" s="4"/>
     </row>
-    <row r="762" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -47961,7 +48006,7 @@
       <c r="AH762" s="4"/>
       <c r="AI762" s="4"/>
     </row>
-    <row r="763" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -47998,7 +48043,7 @@
       <c r="AH763" s="4"/>
       <c r="AI763" s="4"/>
     </row>
-    <row r="764" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -48035,7 +48080,7 @@
       <c r="AH764" s="4"/>
       <c r="AI764" s="4"/>
     </row>
-    <row r="765" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -48072,7 +48117,7 @@
       <c r="AH765" s="4"/>
       <c r="AI765" s="4"/>
     </row>
-    <row r="766" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -48109,7 +48154,7 @@
       <c r="AH766" s="4"/>
       <c r="AI766" s="4"/>
     </row>
-    <row r="767" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -48146,7 +48191,7 @@
       <c r="AH767" s="4"/>
       <c r="AI767" s="4"/>
     </row>
-    <row r="768" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -48183,7 +48228,7 @@
       <c r="AH768" s="4"/>
       <c r="AI768" s="4"/>
     </row>
-    <row r="769" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -48220,7 +48265,7 @@
       <c r="AH769" s="4"/>
       <c r="AI769" s="4"/>
     </row>
-    <row r="770" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -48257,7 +48302,7 @@
       <c r="AH770" s="4"/>
       <c r="AI770" s="4"/>
     </row>
-    <row r="771" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -48294,7 +48339,7 @@
       <c r="AH771" s="4"/>
       <c r="AI771" s="4"/>
     </row>
-    <row r="772" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -48331,7 +48376,7 @@
       <c r="AH772" s="4"/>
       <c r="AI772" s="4"/>
     </row>
-    <row r="773" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -48368,7 +48413,7 @@
       <c r="AH773" s="4"/>
       <c r="AI773" s="4"/>
     </row>
-    <row r="774" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -48405,7 +48450,7 @@
       <c r="AH774" s="4"/>
       <c r="AI774" s="4"/>
     </row>
-    <row r="775" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -48442,7 +48487,7 @@
       <c r="AH775" s="4"/>
       <c r="AI775" s="4"/>
     </row>
-    <row r="776" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -48479,7 +48524,7 @@
       <c r="AH776" s="4"/>
       <c r="AI776" s="4"/>
     </row>
-    <row r="777" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -48516,7 +48561,7 @@
       <c r="AH777" s="4"/>
       <c r="AI777" s="4"/>
     </row>
-    <row r="778" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -48553,7 +48598,7 @@
       <c r="AH778" s="4"/>
       <c r="AI778" s="4"/>
     </row>
-    <row r="779" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -48590,7 +48635,7 @@
       <c r="AH779" s="4"/>
       <c r="AI779" s="4"/>
     </row>
-    <row r="780" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -48627,7 +48672,7 @@
       <c r="AH780" s="4"/>
       <c r="AI780" s="4"/>
     </row>
-    <row r="781" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -48664,7 +48709,7 @@
       <c r="AH781" s="4"/>
       <c r="AI781" s="4"/>
     </row>
-    <row r="782" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -48701,7 +48746,7 @@
       <c r="AH782" s="4"/>
       <c r="AI782" s="4"/>
     </row>
-    <row r="783" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -48738,7 +48783,7 @@
       <c r="AH783" s="4"/>
       <c r="AI783" s="4"/>
     </row>
-    <row r="784" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -48775,7 +48820,7 @@
       <c r="AH784" s="4"/>
       <c r="AI784" s="4"/>
     </row>
-    <row r="785" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -48812,7 +48857,7 @@
       <c r="AH785" s="4"/>
       <c r="AI785" s="4"/>
     </row>
-    <row r="786" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -48849,7 +48894,7 @@
       <c r="AH786" s="4"/>
       <c r="AI786" s="4"/>
     </row>
-    <row r="787" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -48886,7 +48931,7 @@
       <c r="AH787" s="4"/>
       <c r="AI787" s="4"/>
     </row>
-    <row r="788" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -48923,7 +48968,7 @@
       <c r="AH788" s="4"/>
       <c r="AI788" s="4"/>
     </row>
-    <row r="789" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -48960,7 +49005,7 @@
       <c r="AH789" s="4"/>
       <c r="AI789" s="4"/>
     </row>
-    <row r="790" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -48997,7 +49042,7 @@
       <c r="AH790" s="4"/>
       <c r="AI790" s="4"/>
     </row>
-    <row r="791" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -49034,7 +49079,7 @@
       <c r="AH791" s="4"/>
       <c r="AI791" s="4"/>
     </row>
-    <row r="792" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -49071,7 +49116,7 @@
       <c r="AH792" s="4"/>
       <c r="AI792" s="4"/>
     </row>
-    <row r="793" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -49108,7 +49153,7 @@
       <c r="AH793" s="4"/>
       <c r="AI793" s="4"/>
     </row>
-    <row r="794" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -49145,7 +49190,7 @@
       <c r="AH794" s="4"/>
       <c r="AI794" s="4"/>
     </row>
-    <row r="795" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -49182,7 +49227,7 @@
       <c r="AH795" s="4"/>
       <c r="AI795" s="4"/>
     </row>
-    <row r="796" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -49219,7 +49264,7 @@
       <c r="AH796" s="4"/>
       <c r="AI796" s="4"/>
     </row>
-    <row r="797" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -49256,7 +49301,7 @@
       <c r="AH797" s="4"/>
       <c r="AI797" s="4"/>
     </row>
-    <row r="798" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -49293,7 +49338,7 @@
       <c r="AH798" s="4"/>
       <c r="AI798" s="4"/>
     </row>
-    <row r="799" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -49330,7 +49375,7 @@
       <c r="AH799" s="4"/>
       <c r="AI799" s="4"/>
     </row>
-    <row r="800" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -49367,7 +49412,7 @@
       <c r="AH800" s="4"/>
       <c r="AI800" s="4"/>
     </row>
-    <row r="801" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -49404,7 +49449,7 @@
       <c r="AH801" s="4"/>
       <c r="AI801" s="4"/>
     </row>
-    <row r="802" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -49441,7 +49486,7 @@
       <c r="AH802" s="4"/>
       <c r="AI802" s="4"/>
     </row>
-    <row r="803" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -49478,7 +49523,7 @@
       <c r="AH803" s="4"/>
       <c r="AI803" s="4"/>
     </row>
-    <row r="804" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -49515,7 +49560,7 @@
       <c r="AH804" s="4"/>
       <c r="AI804" s="4"/>
     </row>
-    <row r="805" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -49552,7 +49597,7 @@
       <c r="AH805" s="4"/>
       <c r="AI805" s="4"/>
     </row>
-    <row r="806" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -49589,7 +49634,7 @@
       <c r="AH806" s="4"/>
       <c r="AI806" s="4"/>
     </row>
-    <row r="807" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -49626,7 +49671,7 @@
       <c r="AH807" s="4"/>
       <c r="AI807" s="4"/>
     </row>
-    <row r="808" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -49663,7 +49708,7 @@
       <c r="AH808" s="4"/>
       <c r="AI808" s="4"/>
     </row>
-    <row r="809" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -49700,7 +49745,7 @@
       <c r="AH809" s="4"/>
       <c r="AI809" s="4"/>
     </row>
-    <row r="810" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -49737,7 +49782,7 @@
       <c r="AH810" s="4"/>
       <c r="AI810" s="4"/>
     </row>
-    <row r="811" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -49774,7 +49819,7 @@
       <c r="AH811" s="4"/>
       <c r="AI811" s="4"/>
     </row>
-    <row r="812" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -49811,7 +49856,7 @@
       <c r="AH812" s="4"/>
       <c r="AI812" s="4"/>
     </row>
-    <row r="813" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -49848,7 +49893,7 @@
       <c r="AH813" s="4"/>
       <c r="AI813" s="4"/>
     </row>
-    <row r="814" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -49885,7 +49930,7 @@
       <c r="AH814" s="4"/>
       <c r="AI814" s="4"/>
     </row>
-    <row r="815" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -49922,7 +49967,7 @@
       <c r="AH815" s="4"/>
       <c r="AI815" s="4"/>
     </row>
-    <row r="816" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -49959,7 +50004,7 @@
       <c r="AH816" s="4"/>
       <c r="AI816" s="4"/>
     </row>
-    <row r="817" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -49996,7 +50041,7 @@
       <c r="AH817" s="4"/>
       <c r="AI817" s="4"/>
     </row>
-    <row r="818" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -50033,7 +50078,7 @@
       <c r="AH818" s="4"/>
       <c r="AI818" s="4"/>
     </row>
-    <row r="819" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -50070,7 +50115,7 @@
       <c r="AH819" s="4"/>
       <c r="AI819" s="4"/>
     </row>
-    <row r="820" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -50107,7 +50152,7 @@
       <c r="AH820" s="4"/>
       <c r="AI820" s="4"/>
     </row>
-    <row r="821" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -50144,7 +50189,7 @@
       <c r="AH821" s="4"/>
       <c r="AI821" s="4"/>
     </row>
-    <row r="822" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -50181,7 +50226,7 @@
       <c r="AH822" s="4"/>
       <c r="AI822" s="4"/>
     </row>
-    <row r="823" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -50218,7 +50263,7 @@
       <c r="AH823" s="4"/>
       <c r="AI823" s="4"/>
     </row>
-    <row r="824" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -50255,7 +50300,7 @@
       <c r="AH824" s="4"/>
       <c r="AI824" s="4"/>
     </row>
-    <row r="825" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -50292,7 +50337,7 @@
       <c r="AH825" s="4"/>
       <c r="AI825" s="4"/>
     </row>
-    <row r="826" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -50329,7 +50374,7 @@
       <c r="AH826" s="4"/>
       <c r="AI826" s="4"/>
     </row>
-    <row r="827" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -50366,7 +50411,7 @@
       <c r="AH827" s="4"/>
       <c r="AI827" s="4"/>
     </row>
-    <row r="828" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -50403,7 +50448,7 @@
       <c r="AH828" s="4"/>
       <c r="AI828" s="4"/>
     </row>
-    <row r="829" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -50440,7 +50485,7 @@
       <c r="AH829" s="4"/>
       <c r="AI829" s="4"/>
     </row>
-    <row r="830" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -50477,7 +50522,7 @@
       <c r="AH830" s="4"/>
       <c r="AI830" s="4"/>
     </row>
-    <row r="831" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -50514,7 +50559,7 @@
       <c r="AH831" s="4"/>
       <c r="AI831" s="4"/>
     </row>
-    <row r="832" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -50551,7 +50596,7 @@
       <c r="AH832" s="4"/>
       <c r="AI832" s="4"/>
     </row>
-    <row r="833" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -50588,7 +50633,7 @@
       <c r="AH833" s="4"/>
       <c r="AI833" s="4"/>
     </row>
-    <row r="834" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -50625,7 +50670,7 @@
       <c r="AH834" s="4"/>
       <c r="AI834" s="4"/>
     </row>
-    <row r="835" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -50662,7 +50707,7 @@
       <c r="AH835" s="4"/>
       <c r="AI835" s="4"/>
     </row>
-    <row r="836" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -50699,7 +50744,7 @@
       <c r="AH836" s="4"/>
       <c r="AI836" s="4"/>
     </row>
-    <row r="837" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -50736,7 +50781,7 @@
       <c r="AH837" s="4"/>
       <c r="AI837" s="4"/>
     </row>
-    <row r="838" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -50773,7 +50818,7 @@
       <c r="AH838" s="4"/>
       <c r="AI838" s="4"/>
     </row>
-    <row r="839" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -50810,7 +50855,7 @@
       <c r="AH839" s="4"/>
       <c r="AI839" s="4"/>
     </row>
-    <row r="840" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -50847,7 +50892,7 @@
       <c r="AH840" s="4"/>
       <c r="AI840" s="4"/>
     </row>
-    <row r="841" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -50884,7 +50929,7 @@
       <c r="AH841" s="4"/>
       <c r="AI841" s="4"/>
     </row>
-    <row r="842" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -50921,7 +50966,7 @@
       <c r="AH842" s="4"/>
       <c r="AI842" s="4"/>
     </row>
-    <row r="843" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -50958,7 +51003,7 @@
       <c r="AH843" s="4"/>
       <c r="AI843" s="4"/>
     </row>
-    <row r="844" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -50995,7 +51040,7 @@
       <c r="AH844" s="4"/>
       <c r="AI844" s="4"/>
     </row>
-    <row r="845" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -51032,7 +51077,7 @@
       <c r="AH845" s="4"/>
       <c r="AI845" s="4"/>
     </row>
-    <row r="846" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -51069,7 +51114,7 @@
       <c r="AH846" s="4"/>
       <c r="AI846" s="4"/>
     </row>
-    <row r="847" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -51106,7 +51151,7 @@
       <c r="AH847" s="4"/>
       <c r="AI847" s="4"/>
     </row>
-    <row r="848" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -51143,7 +51188,7 @@
       <c r="AH848" s="4"/>
       <c r="AI848" s="4"/>
     </row>
-    <row r="849" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -51180,7 +51225,7 @@
       <c r="AH849" s="4"/>
       <c r="AI849" s="4"/>
     </row>
-    <row r="850" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -51217,7 +51262,7 @@
       <c r="AH850" s="4"/>
       <c r="AI850" s="4"/>
     </row>
-    <row r="851" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -51254,7 +51299,7 @@
       <c r="AH851" s="4"/>
       <c r="AI851" s="4"/>
     </row>
-    <row r="852" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -51291,7 +51336,7 @@
       <c r="AH852" s="4"/>
       <c r="AI852" s="4"/>
     </row>
-    <row r="853" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -51328,7 +51373,7 @@
       <c r="AH853" s="4"/>
       <c r="AI853" s="4"/>
     </row>
-    <row r="854" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -51365,7 +51410,7 @@
       <c r="AH854" s="4"/>
       <c r="AI854" s="4"/>
     </row>
-    <row r="855" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -51402,7 +51447,7 @@
       <c r="AH855" s="4"/>
       <c r="AI855" s="4"/>
     </row>
-    <row r="856" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -51439,7 +51484,7 @@
       <c r="AH856" s="4"/>
       <c r="AI856" s="4"/>
     </row>
-    <row r="857" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -51476,7 +51521,7 @@
       <c r="AH857" s="4"/>
       <c r="AI857" s="4"/>
     </row>
-    <row r="858" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -51513,7 +51558,7 @@
       <c r="AH858" s="4"/>
       <c r="AI858" s="4"/>
     </row>
-    <row r="859" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -51550,7 +51595,7 @@
       <c r="AH859" s="4"/>
       <c r="AI859" s="4"/>
     </row>
-    <row r="860" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -51587,7 +51632,7 @@
       <c r="AH860" s="4"/>
       <c r="AI860" s="4"/>
     </row>
-    <row r="861" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -51624,7 +51669,7 @@
       <c r="AH861" s="4"/>
       <c r="AI861" s="4"/>
     </row>
-    <row r="862" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -51661,7 +51706,7 @@
       <c r="AH862" s="4"/>
       <c r="AI862" s="4"/>
     </row>
-    <row r="863" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -51698,7 +51743,7 @@
       <c r="AH863" s="4"/>
       <c r="AI863" s="4"/>
     </row>
-    <row r="864" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -51735,7 +51780,7 @@
       <c r="AH864" s="4"/>
       <c r="AI864" s="4"/>
     </row>
-    <row r="865" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -51772,7 +51817,7 @@
       <c r="AH865" s="4"/>
       <c r="AI865" s="4"/>
     </row>
-    <row r="866" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -51809,7 +51854,7 @@
       <c r="AH866" s="4"/>
       <c r="AI866" s="4"/>
     </row>
-    <row r="867" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -51846,7 +51891,7 @@
       <c r="AH867" s="4"/>
       <c r="AI867" s="4"/>
     </row>
-    <row r="868" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -51883,7 +51928,7 @@
       <c r="AH868" s="4"/>
       <c r="AI868" s="4"/>
     </row>
-    <row r="869" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -51920,7 +51965,7 @@
       <c r="AH869" s="4"/>
       <c r="AI869" s="4"/>
     </row>
-    <row r="870" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -51957,7 +52002,7 @@
       <c r="AH870" s="4"/>
       <c r="AI870" s="4"/>
     </row>
-    <row r="871" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -51994,7 +52039,7 @@
       <c r="AH871" s="4"/>
       <c r="AI871" s="4"/>
     </row>
-    <row r="872" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -52031,7 +52076,7 @@
       <c r="AH872" s="4"/>
       <c r="AI872" s="4"/>
     </row>
-    <row r="873" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -52068,7 +52113,7 @@
       <c r="AH873" s="4"/>
       <c r="AI873" s="4"/>
     </row>
-    <row r="874" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -52105,7 +52150,7 @@
       <c r="AH874" s="4"/>
       <c r="AI874" s="4"/>
     </row>
-    <row r="875" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -52142,7 +52187,7 @@
       <c r="AH875" s="4"/>
       <c r="AI875" s="4"/>
     </row>
-    <row r="876" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -52179,7 +52224,7 @@
       <c r="AH876" s="4"/>
       <c r="AI876" s="4"/>
     </row>
-    <row r="877" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -52216,7 +52261,7 @@
       <c r="AH877" s="4"/>
       <c r="AI877" s="4"/>
     </row>
-    <row r="878" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -52253,7 +52298,7 @@
       <c r="AH878" s="4"/>
       <c r="AI878" s="4"/>
     </row>
-    <row r="879" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -52290,7 +52335,7 @@
       <c r="AH879" s="4"/>
       <c r="AI879" s="4"/>
     </row>
-    <row r="880" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -52327,7 +52372,7 @@
       <c r="AH880" s="4"/>
       <c r="AI880" s="4"/>
     </row>
-    <row r="881" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -52364,7 +52409,7 @@
       <c r="AH881" s="4"/>
       <c r="AI881" s="4"/>
     </row>
-    <row r="882" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -52401,7 +52446,7 @@
       <c r="AH882" s="4"/>
       <c r="AI882" s="4"/>
     </row>
-    <row r="883" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -52438,7 +52483,7 @@
       <c r="AH883" s="4"/>
       <c r="AI883" s="4"/>
     </row>
-    <row r="884" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -52475,7 +52520,7 @@
       <c r="AH884" s="4"/>
       <c r="AI884" s="4"/>
     </row>
-    <row r="885" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -52512,7 +52557,7 @@
       <c r="AH885" s="4"/>
       <c r="AI885" s="4"/>
     </row>
-    <row r="886" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -52549,7 +52594,7 @@
       <c r="AH886" s="4"/>
       <c r="AI886" s="4"/>
     </row>
-    <row r="887" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -52586,7 +52631,7 @@
       <c r="AH887" s="4"/>
       <c r="AI887" s="4"/>
     </row>
-    <row r="888" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -52623,7 +52668,7 @@
       <c r="AH888" s="4"/>
       <c r="AI888" s="4"/>
     </row>
-    <row r="889" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -52660,7 +52705,7 @@
       <c r="AH889" s="4"/>
       <c r="AI889" s="4"/>
     </row>
-    <row r="890" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -52697,7 +52742,7 @@
       <c r="AH890" s="4"/>
       <c r="AI890" s="4"/>
     </row>
-    <row r="891" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -52734,7 +52779,7 @@
       <c r="AH891" s="4"/>
       <c r="AI891" s="4"/>
     </row>
-    <row r="892" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -52771,7 +52816,7 @@
       <c r="AH892" s="4"/>
       <c r="AI892" s="4"/>
     </row>
-    <row r="893" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -52808,7 +52853,7 @@
       <c r="AH893" s="4"/>
       <c r="AI893" s="4"/>
     </row>
-    <row r="894" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -52845,7 +52890,7 @@
       <c r="AH894" s="4"/>
       <c r="AI894" s="4"/>
     </row>
-    <row r="895" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -52882,7 +52927,7 @@
       <c r="AH895" s="4"/>
       <c r="AI895" s="4"/>
     </row>
-    <row r="896" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -52919,7 +52964,7 @@
       <c r="AH896" s="4"/>
       <c r="AI896" s="4"/>
     </row>
-    <row r="897" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -52956,7 +53001,7 @@
       <c r="AH897" s="4"/>
       <c r="AI897" s="4"/>
     </row>
-    <row r="898" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -52993,7 +53038,7 @@
       <c r="AH898" s="4"/>
       <c r="AI898" s="4"/>
     </row>
-    <row r="899" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -53030,7 +53075,7 @@
       <c r="AH899" s="4"/>
       <c r="AI899" s="4"/>
     </row>
-    <row r="900" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -53067,7 +53112,7 @@
       <c r="AH900" s="4"/>
       <c r="AI900" s="4"/>
     </row>
-    <row r="901" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -53104,7 +53149,7 @@
       <c r="AH901" s="4"/>
       <c r="AI901" s="4"/>
     </row>
-    <row r="902" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -53141,7 +53186,7 @@
       <c r="AH902" s="4"/>
       <c r="AI902" s="4"/>
     </row>
-    <row r="903" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -53178,7 +53223,7 @@
       <c r="AH903" s="4"/>
       <c r="AI903" s="4"/>
     </row>
-    <row r="904" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -53215,7 +53260,7 @@
       <c r="AH904" s="4"/>
       <c r="AI904" s="4"/>
     </row>
-    <row r="905" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -53252,7 +53297,7 @@
       <c r="AH905" s="4"/>
       <c r="AI905" s="4"/>
     </row>
-    <row r="906" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -53289,7 +53334,7 @@
       <c r="AH906" s="4"/>
       <c r="AI906" s="4"/>
     </row>
-    <row r="907" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -53326,7 +53371,7 @@
       <c r="AH907" s="4"/>
       <c r="AI907" s="4"/>
     </row>
-    <row r="908" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -53363,7 +53408,7 @@
       <c r="AH908" s="4"/>
       <c r="AI908" s="4"/>
     </row>
-    <row r="909" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -53400,7 +53445,7 @@
       <c r="AH909" s="4"/>
       <c r="AI909" s="4"/>
     </row>
-    <row r="910" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -53437,7 +53482,7 @@
       <c r="AH910" s="4"/>
       <c r="AI910" s="4"/>
     </row>
-    <row r="911" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -53474,7 +53519,7 @@
       <c r="AH911" s="4"/>
       <c r="AI911" s="4"/>
     </row>
-    <row r="912" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -53511,7 +53556,7 @@
       <c r="AH912" s="4"/>
       <c r="AI912" s="4"/>
     </row>
-    <row r="913" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -53548,7 +53593,7 @@
       <c r="AH913" s="4"/>
       <c r="AI913" s="4"/>
     </row>
-    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -53585,7 +53630,7 @@
       <c r="AH914" s="4"/>
       <c r="AI914" s="4"/>
     </row>
-    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -53622,7 +53667,7 @@
       <c r="AH915" s="4"/>
       <c r="AI915" s="4"/>
     </row>
-    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -53659,7 +53704,7 @@
       <c r="AH916" s="4"/>
       <c r="AI916" s="4"/>
     </row>
-    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -53696,7 +53741,7 @@
       <c r="AH917" s="4"/>
       <c r="AI917" s="4"/>
     </row>
-    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -53733,7 +53778,7 @@
       <c r="AH918" s="4"/>
       <c r="AI918" s="4"/>
     </row>
-    <row r="919" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -53770,7 +53815,7 @@
       <c r="AH919" s="4"/>
       <c r="AI919" s="4"/>
     </row>
-    <row r="920" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -53807,7 +53852,7 @@
       <c r="AH920" s="4"/>
       <c r="AI920" s="4"/>
     </row>
-    <row r="921" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -53844,7 +53889,7 @@
       <c r="AH921" s="4"/>
       <c r="AI921" s="4"/>
     </row>
-    <row r="922" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -53881,7 +53926,7 @@
       <c r="AH922" s="4"/>
       <c r="AI922" s="4"/>
     </row>
-    <row r="923" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -53918,7 +53963,7 @@
       <c r="AH923" s="4"/>
       <c r="AI923" s="4"/>
     </row>
-    <row r="924" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -53955,7 +54000,7 @@
       <c r="AH924" s="4"/>
       <c r="AI924" s="4"/>
     </row>
-    <row r="925" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -53992,7 +54037,7 @@
       <c r="AH925" s="4"/>
       <c r="AI925" s="4"/>
     </row>
-    <row r="926" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -54029,7 +54074,7 @@
       <c r="AH926" s="4"/>
       <c r="AI926" s="4"/>
     </row>
-    <row r="927" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -54066,7 +54111,7 @@
       <c r="AH927" s="4"/>
       <c r="AI927" s="4"/>
     </row>
-    <row r="928" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -54103,7 +54148,7 @@
       <c r="AH928" s="4"/>
       <c r="AI928" s="4"/>
     </row>
-    <row r="929" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -54140,7 +54185,7 @@
       <c r="AH929" s="4"/>
       <c r="AI929" s="4"/>
     </row>
-    <row r="930" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -54177,7 +54222,7 @@
       <c r="AH930" s="4"/>
       <c r="AI930" s="4"/>
     </row>
-    <row r="931" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -54214,7 +54259,7 @@
       <c r="AH931" s="4"/>
       <c r="AI931" s="4"/>
     </row>
-    <row r="932" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -54251,7 +54296,7 @@
       <c r="AH932" s="4"/>
       <c r="AI932" s="4"/>
     </row>
-    <row r="933" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -54288,7 +54333,7 @@
       <c r="AH933" s="4"/>
       <c r="AI933" s="4"/>
     </row>
-    <row r="934" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -54327,203 +54372,203 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T2:T205" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T2:T205">
       <formula1>"RRB,RRC,COMP.,LARSGESS,LAND LOSER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P2:P205" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P2:P205">
       <formula1>"पुरूष,महिला"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2:R205" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2:R205">
       <formula1>"ट्रैकमेन्‍टेनर - I,ट्रैकमेन्‍टेनर - II,ट्रैकमेन्‍टेनर - III,ट्रैकमेन्‍टेनर - IV,गेटमैन-II,सीनी.टेक्‍नीशियन,टेक्‍नीशियन - III"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q205" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q205">
       <formula1>"अजा,अजजा,अपिव,सामान्‍य"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Z2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F77" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F78" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F83" r:id="rId75" display="RAJ KUMAR SEN" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F84" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F86" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F87" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F99" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F100" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F101" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F102" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F103" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F104" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F105" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="F108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F115" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F116" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F117" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F119" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="Z119" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F120" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F122" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F123" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F124" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F125" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F126" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F129" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F131" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F132" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F133" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F135" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="F136" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F137" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F138" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F140" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="F142" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F143" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F145" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F146" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F147" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F148" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F149" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F150" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="F151" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="F152" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="F153" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="F154" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="F155" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="F156" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="F157" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="F158" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="F159" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="F160" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="F161" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="F162" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="F163" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="F164" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="F165" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="F166" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="F167" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="F168" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="F169" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="F170" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="F171" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="F172" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="F174" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="F175" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="F176" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="F177" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="F178" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="F179" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="F180" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="F182" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="F183" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="F184" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="F186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="F188" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="F189" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="F190" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="F191" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="F192" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="F193" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="F194" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="F195" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="F196" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="F197" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="F198" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="F199" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="F200" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="F201" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="F202" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="F203" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="F181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="F185" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="F94" r:id="rId182" display="BHOLA PRASAD SAKET" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="F82" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="Z2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F13" r:id="rId13"/>
+    <hyperlink ref="F14" r:id="rId14"/>
+    <hyperlink ref="F15" r:id="rId15"/>
+    <hyperlink ref="F16" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId17"/>
+    <hyperlink ref="F18" r:id="rId18"/>
+    <hyperlink ref="F19" r:id="rId19"/>
+    <hyperlink ref="F20" r:id="rId20"/>
+    <hyperlink ref="F29" r:id="rId21"/>
+    <hyperlink ref="F21" r:id="rId22"/>
+    <hyperlink ref="F22" r:id="rId23"/>
+    <hyperlink ref="F23" r:id="rId24"/>
+    <hyperlink ref="F24" r:id="rId25"/>
+    <hyperlink ref="F25" r:id="rId26"/>
+    <hyperlink ref="F26" r:id="rId27"/>
+    <hyperlink ref="F27" r:id="rId28"/>
+    <hyperlink ref="F28" r:id="rId29"/>
+    <hyperlink ref="F30" r:id="rId30"/>
+    <hyperlink ref="F31" r:id="rId31"/>
+    <hyperlink ref="F32" r:id="rId32"/>
+    <hyperlink ref="F33" r:id="rId33"/>
+    <hyperlink ref="F34" r:id="rId34"/>
+    <hyperlink ref="F35" r:id="rId35"/>
+    <hyperlink ref="F36" r:id="rId36"/>
+    <hyperlink ref="F37" r:id="rId37"/>
+    <hyperlink ref="F38" r:id="rId38"/>
+    <hyperlink ref="F39" r:id="rId39"/>
+    <hyperlink ref="F40" r:id="rId40"/>
+    <hyperlink ref="F41" r:id="rId41"/>
+    <hyperlink ref="F42" r:id="rId42"/>
+    <hyperlink ref="F43" r:id="rId43"/>
+    <hyperlink ref="F44" r:id="rId44"/>
+    <hyperlink ref="F45" r:id="rId45"/>
+    <hyperlink ref="F46" r:id="rId46"/>
+    <hyperlink ref="F47" r:id="rId47"/>
+    <hyperlink ref="F48" r:id="rId48"/>
+    <hyperlink ref="F49" r:id="rId49"/>
+    <hyperlink ref="F50" r:id="rId50"/>
+    <hyperlink ref="F51" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F58" r:id="rId56"/>
+    <hyperlink ref="F59" r:id="rId57"/>
+    <hyperlink ref="F60" r:id="rId58"/>
+    <hyperlink ref="F61" r:id="rId59"/>
+    <hyperlink ref="F62" r:id="rId60"/>
+    <hyperlink ref="F63" r:id="rId61"/>
+    <hyperlink ref="F64" r:id="rId62"/>
+    <hyperlink ref="F65" r:id="rId63"/>
+    <hyperlink ref="F66" r:id="rId64"/>
+    <hyperlink ref="F67" r:id="rId65"/>
+    <hyperlink ref="F68" r:id="rId66"/>
+    <hyperlink ref="F69" r:id="rId67"/>
+    <hyperlink ref="F70" r:id="rId68"/>
+    <hyperlink ref="F71" r:id="rId69"/>
+    <hyperlink ref="F72" r:id="rId70"/>
+    <hyperlink ref="F74" r:id="rId71"/>
+    <hyperlink ref="F76" r:id="rId72"/>
+    <hyperlink ref="F77" r:id="rId73"/>
+    <hyperlink ref="F78" r:id="rId74"/>
+    <hyperlink ref="F83" r:id="rId75" display="RAJ KUMAR SEN"/>
+    <hyperlink ref="F85" r:id="rId76"/>
+    <hyperlink ref="F84" r:id="rId77"/>
+    <hyperlink ref="F86" r:id="rId78"/>
+    <hyperlink ref="F87" r:id="rId79"/>
+    <hyperlink ref="F89" r:id="rId80"/>
+    <hyperlink ref="F90" r:id="rId81"/>
+    <hyperlink ref="F91" r:id="rId82"/>
+    <hyperlink ref="F92" r:id="rId83"/>
+    <hyperlink ref="F93" r:id="rId84"/>
+    <hyperlink ref="F95" r:id="rId85"/>
+    <hyperlink ref="F96" r:id="rId86"/>
+    <hyperlink ref="F97" r:id="rId87"/>
+    <hyperlink ref="F98" r:id="rId88"/>
+    <hyperlink ref="F99" r:id="rId89"/>
+    <hyperlink ref="F100" r:id="rId90"/>
+    <hyperlink ref="F101" r:id="rId91"/>
+    <hyperlink ref="F102" r:id="rId92"/>
+    <hyperlink ref="F103" r:id="rId93"/>
+    <hyperlink ref="F104" r:id="rId94"/>
+    <hyperlink ref="F105" r:id="rId95"/>
+    <hyperlink ref="F107" r:id="rId96"/>
+    <hyperlink ref="F108" r:id="rId97"/>
+    <hyperlink ref="F109" r:id="rId98"/>
+    <hyperlink ref="F110" r:id="rId99"/>
+    <hyperlink ref="F111" r:id="rId100"/>
+    <hyperlink ref="F112" r:id="rId101"/>
+    <hyperlink ref="F113" r:id="rId102"/>
+    <hyperlink ref="F115" r:id="rId103"/>
+    <hyperlink ref="F116" r:id="rId104"/>
+    <hyperlink ref="F117" r:id="rId105"/>
+    <hyperlink ref="F119" r:id="rId106"/>
+    <hyperlink ref="Z119" r:id="rId107"/>
+    <hyperlink ref="F120" r:id="rId108"/>
+    <hyperlink ref="F122" r:id="rId109"/>
+    <hyperlink ref="F123" r:id="rId110"/>
+    <hyperlink ref="F124" r:id="rId111"/>
+    <hyperlink ref="F125" r:id="rId112"/>
+    <hyperlink ref="F126" r:id="rId113"/>
+    <hyperlink ref="F129" r:id="rId114"/>
+    <hyperlink ref="F131" r:id="rId115"/>
+    <hyperlink ref="F132" r:id="rId116"/>
+    <hyperlink ref="F133" r:id="rId117"/>
+    <hyperlink ref="F135" r:id="rId118"/>
+    <hyperlink ref="F136" r:id="rId119"/>
+    <hyperlink ref="F137" r:id="rId120"/>
+    <hyperlink ref="F138" r:id="rId121"/>
+    <hyperlink ref="F140" r:id="rId122"/>
+    <hyperlink ref="F142" r:id="rId123"/>
+    <hyperlink ref="F143" r:id="rId124"/>
+    <hyperlink ref="F145" r:id="rId125"/>
+    <hyperlink ref="F146" r:id="rId126"/>
+    <hyperlink ref="F147" r:id="rId127"/>
+    <hyperlink ref="F148" r:id="rId128"/>
+    <hyperlink ref="F149" r:id="rId129"/>
+    <hyperlink ref="F150" r:id="rId130"/>
+    <hyperlink ref="F151" r:id="rId131"/>
+    <hyperlink ref="F152" r:id="rId132"/>
+    <hyperlink ref="F153" r:id="rId133"/>
+    <hyperlink ref="F154" r:id="rId134"/>
+    <hyperlink ref="F155" r:id="rId135"/>
+    <hyperlink ref="F156" r:id="rId136"/>
+    <hyperlink ref="F157" r:id="rId137"/>
+    <hyperlink ref="F158" r:id="rId138"/>
+    <hyperlink ref="F159" r:id="rId139"/>
+    <hyperlink ref="F160" r:id="rId140"/>
+    <hyperlink ref="F161" r:id="rId141"/>
+    <hyperlink ref="F162" r:id="rId142"/>
+    <hyperlink ref="F163" r:id="rId143"/>
+    <hyperlink ref="F164" r:id="rId144"/>
+    <hyperlink ref="F165" r:id="rId145"/>
+    <hyperlink ref="F166" r:id="rId146"/>
+    <hyperlink ref="F167" r:id="rId147"/>
+    <hyperlink ref="F168" r:id="rId148"/>
+    <hyperlink ref="F169" r:id="rId149"/>
+    <hyperlink ref="F170" r:id="rId150"/>
+    <hyperlink ref="F171" r:id="rId151"/>
+    <hyperlink ref="F172" r:id="rId152"/>
+    <hyperlink ref="F174" r:id="rId153"/>
+    <hyperlink ref="F175" r:id="rId154"/>
+    <hyperlink ref="F176" r:id="rId155"/>
+    <hyperlink ref="F177" r:id="rId156"/>
+    <hyperlink ref="F178" r:id="rId157"/>
+    <hyperlink ref="F179" r:id="rId158"/>
+    <hyperlink ref="F180" r:id="rId159"/>
+    <hyperlink ref="F182" r:id="rId160"/>
+    <hyperlink ref="F183" r:id="rId161"/>
+    <hyperlink ref="F184" r:id="rId162"/>
+    <hyperlink ref="F186" r:id="rId163"/>
+    <hyperlink ref="F188" r:id="rId164"/>
+    <hyperlink ref="F189" r:id="rId165"/>
+    <hyperlink ref="F190" r:id="rId166"/>
+    <hyperlink ref="F191" r:id="rId167"/>
+    <hyperlink ref="F192" r:id="rId168"/>
+    <hyperlink ref="F193" r:id="rId169"/>
+    <hyperlink ref="F194" r:id="rId170"/>
+    <hyperlink ref="F195" r:id="rId171"/>
+    <hyperlink ref="F196" r:id="rId172"/>
+    <hyperlink ref="F197" r:id="rId173"/>
+    <hyperlink ref="F198" r:id="rId174"/>
+    <hyperlink ref="F199" r:id="rId175"/>
+    <hyperlink ref="F200" r:id="rId176"/>
+    <hyperlink ref="F201" r:id="rId177"/>
+    <hyperlink ref="F202" r:id="rId178"/>
+    <hyperlink ref="F203" r:id="rId179"/>
+    <hyperlink ref="F181" r:id="rId180"/>
+    <hyperlink ref="F185" r:id="rId181"/>
+    <hyperlink ref="F94" r:id="rId182" display="BHOLA PRASAD SAKET"/>
+    <hyperlink ref="F82" r:id="rId183"/>
   </hyperlinks>
   <pageMargins left="0.43307086614173229" right="0.15748031496062992" top="0.27559055118110237" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId184"/>

--- a/assets/EMPLOYEE MASTER DATA.xlsx
+++ b/assets/EMPLOYEE MASTER DATA.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3721" uniqueCount="1742">
   <si>
     <t>INTER RAILWAY  MUTUAL TRANSFER FROM NER TO SGAM CHARGE TAKEN FROM 13/03/2025</t>
   </si>
@@ -5105,6 +5105,165 @@
   </si>
   <si>
     <t>31/8</t>
+  </si>
+  <si>
+    <t>45206478128</t>
+  </si>
+  <si>
+    <t>UBQAUU</t>
+  </si>
+  <si>
+    <t>CLASS-III</t>
+  </si>
+  <si>
+    <t>Prabhat Ranjan</t>
+  </si>
+  <si>
+    <t>SSE/PW/SGAM (Inch.)</t>
+  </si>
+  <si>
+    <t>वरि.ख.अभि.</t>
+  </si>
+  <si>
+    <t>45216013273</t>
+  </si>
+  <si>
+    <t>ONQRCB</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Das</t>
+  </si>
+  <si>
+    <t>SSE/PW/BRGW</t>
+  </si>
+  <si>
+    <t>45216018288</t>
+  </si>
+  <si>
+    <t>SSYXGE</t>
+  </si>
+  <si>
+    <t>Shiv shankar kumar</t>
+  </si>
+  <si>
+    <t>SSE/PW/SGAM (Sec.)</t>
+  </si>
+  <si>
+    <t>45216013250</t>
+  </si>
+  <si>
+    <t>YKQRLQ</t>
+  </si>
+  <si>
+    <t>Umesh Kumar</t>
+  </si>
+  <si>
+    <t>SSE/PW/DRGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">वरि.ख.अभि. </t>
+  </si>
+  <si>
+    <t>45216015398</t>
+  </si>
+  <si>
+    <t>FSRGZH</t>
+  </si>
+  <si>
+    <t>Ram ji Jaiswal</t>
+  </si>
+  <si>
+    <t>JE/PW/GAJB</t>
+  </si>
+  <si>
+    <t>कनि.ख.अभि</t>
+  </si>
+  <si>
+    <t>45205242356</t>
+  </si>
+  <si>
+    <t>RAUXLK</t>
+  </si>
+  <si>
+    <t>Pushpendra kumar Singh</t>
+  </si>
+  <si>
+    <t>OS/SGAM</t>
+  </si>
+  <si>
+    <t>45216015227</t>
+  </si>
+  <si>
+    <t>RFCMFT</t>
+  </si>
+  <si>
+    <t>Vijay Kumar</t>
+  </si>
+  <si>
+    <t>JE/PW/BRGW</t>
+  </si>
+  <si>
+    <t>45216015401</t>
+  </si>
+  <si>
+    <t>AXSXNN</t>
+  </si>
+  <si>
+    <t>Dilip Kumar Jayswal</t>
+  </si>
+  <si>
+    <t>JE/PW/BSDL</t>
+  </si>
+  <si>
+    <t>45216015543</t>
+  </si>
+  <si>
+    <t>LECTLO</t>
+  </si>
+  <si>
+    <t>Ashok Singh</t>
+  </si>
+  <si>
+    <t>JE/PW/GNDI</t>
+  </si>
+  <si>
+    <t>45216015403</t>
+  </si>
+  <si>
+    <t>AFFIWJ</t>
+  </si>
+  <si>
+    <t>Deenanath Jogi</t>
+  </si>
+  <si>
+    <t>JE/PW/NWB</t>
+  </si>
+  <si>
+    <t>45229808006</t>
+  </si>
+  <si>
+    <t>DYTGGH</t>
+  </si>
+  <si>
+    <t>Siddharth Vishwari</t>
+  </si>
+  <si>
+    <t>Sr.Clerck SGAM</t>
+  </si>
+  <si>
+    <t>21429805902</t>
+  </si>
+  <si>
+    <t>NMLOHM</t>
+  </si>
+  <si>
+    <t>Sandeep Pandey</t>
+  </si>
+  <si>
+    <t>JE/PW/USFD BRGW</t>
+  </si>
+  <si>
+    <t>USFD BRGW</t>
   </si>
 </sst>
 </file>
@@ -5220,7 +5379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5243,11 +5402,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5354,6 +5528,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5640,8 +5817,8 @@
   </sheetPr>
   <dimension ref="A1:AL934"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I215" sqref="I215"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J199" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="T212" sqref="T212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27472,450 +27649,708 @@
       </c>
     </row>
     <row r="208" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-      <c r="I208" s="6"/>
-      <c r="J208" s="6"/>
-      <c r="K208" s="6"/>
-      <c r="L208" s="6"/>
-      <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
-      <c r="O208" s="6"/>
-      <c r="P208" s="6"/>
-      <c r="Q208" s="6"/>
-      <c r="R208" s="6"/>
-      <c r="S208" s="6"/>
-      <c r="T208" s="6"/>
-      <c r="U208" s="6"/>
-      <c r="V208" s="6"/>
-      <c r="W208" s="6"/>
-      <c r="X208" s="4"/>
-      <c r="Y208" s="4"/>
-      <c r="Z208" s="4"/>
-      <c r="AA208" s="4"/>
-      <c r="AB208" s="4"/>
-      <c r="AC208" s="4"/>
-      <c r="AD208" s="4"/>
-      <c r="AE208" s="5"/>
-      <c r="AF208" s="4"/>
-      <c r="AG208" s="4"/>
-      <c r="AH208" s="4"/>
-      <c r="AI208" s="4"/>
-    </row>
-    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="26"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
-      <c r="J209" s="6"/>
-      <c r="K209" s="6"/>
-      <c r="L209" s="6"/>
-      <c r="M209" s="6"/>
-      <c r="N209" s="6"/>
-      <c r="O209" s="6"/>
-      <c r="P209" s="6"/>
-      <c r="Q209" s="6"/>
-      <c r="R209" s="6"/>
-      <c r="S209" s="6"/>
-      <c r="T209" s="6"/>
-      <c r="U209" s="6"/>
-      <c r="V209" s="6"/>
-      <c r="W209" s="6"/>
-      <c r="X209" s="4"/>
-      <c r="Y209" s="4"/>
-      <c r="Z209" s="4"/>
-      <c r="AA209" s="4"/>
-      <c r="AB209" s="4"/>
-      <c r="AC209" s="4"/>
-      <c r="AD209" s="4"/>
-      <c r="AE209" s="5"/>
-      <c r="AF209" s="4"/>
-      <c r="AG209" s="4"/>
-      <c r="AH209" s="4"/>
-      <c r="AI209" s="4"/>
-    </row>
-    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="26"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-      <c r="I210" s="6"/>
-      <c r="J210" s="6"/>
-      <c r="K210" s="6"/>
-      <c r="L210" s="6"/>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
-      <c r="O210" s="6"/>
-      <c r="P210" s="6"/>
-      <c r="Q210" s="6"/>
-      <c r="R210" s="6"/>
-      <c r="S210" s="6"/>
-      <c r="T210" s="6"/>
-      <c r="U210" s="6"/>
-      <c r="V210" s="6"/>
-      <c r="W210" s="6"/>
-      <c r="X210" s="4"/>
-      <c r="Y210" s="4"/>
-      <c r="Z210" s="4"/>
-      <c r="AA210" s="4"/>
-      <c r="AB210" s="4"/>
-      <c r="AC210" s="4"/>
-      <c r="AD210" s="4"/>
-      <c r="AE210" s="5"/>
-      <c r="AF210" s="4"/>
-      <c r="AG210" s="4"/>
-      <c r="AH210" s="4"/>
-      <c r="AI210" s="4"/>
-    </row>
-    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="26"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-      <c r="I211" s="6"/>
-      <c r="J211" s="6"/>
-      <c r="K211" s="6"/>
-      <c r="L211" s="6"/>
-      <c r="M211" s="6"/>
-      <c r="N211" s="6"/>
-      <c r="O211" s="6"/>
-      <c r="P211" s="6"/>
-      <c r="Q211" s="6"/>
-      <c r="R211" s="6"/>
-      <c r="S211" s="6"/>
-      <c r="T211" s="6"/>
-      <c r="U211" s="6"/>
-      <c r="V211" s="6"/>
-      <c r="W211" s="6"/>
-      <c r="X211" s="4"/>
-      <c r="Y211" s="4"/>
-      <c r="Z211" s="4"/>
-      <c r="AA211" s="4"/>
-      <c r="AB211" s="4"/>
-      <c r="AC211" s="4"/>
-      <c r="AD211" s="4"/>
-      <c r="AE211" s="5"/>
-      <c r="AF211" s="4"/>
-      <c r="AG211" s="4"/>
-      <c r="AH211" s="4"/>
-      <c r="AI211" s="4"/>
-    </row>
-    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
-      <c r="I212" s="6"/>
-      <c r="J212" s="6"/>
-      <c r="K212" s="6"/>
-      <c r="L212" s="6"/>
-      <c r="M212" s="6"/>
-      <c r="N212" s="6"/>
-      <c r="O212" s="6"/>
-      <c r="P212" s="6"/>
-      <c r="Q212" s="6"/>
-      <c r="R212" s="6"/>
-      <c r="S212" s="6"/>
-      <c r="T212" s="6"/>
-      <c r="U212" s="6"/>
-      <c r="V212" s="6"/>
-      <c r="W212" s="6"/>
-      <c r="X212" s="4"/>
-      <c r="Y212" s="4"/>
-      <c r="Z212" s="4"/>
-      <c r="AA212" s="4"/>
-      <c r="AB212" s="4"/>
-      <c r="AC212" s="4"/>
-      <c r="AD212" s="4"/>
-      <c r="AE212" s="5"/>
-      <c r="AF212" s="4"/>
-      <c r="AG212" s="4"/>
-      <c r="AH212" s="4"/>
-      <c r="AI212" s="4"/>
-    </row>
-    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="26"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
-      <c r="I213" s="6"/>
-      <c r="J213" s="6"/>
-      <c r="K213" s="6"/>
-      <c r="L213" s="6"/>
-      <c r="M213" s="6"/>
-      <c r="N213" s="6"/>
-      <c r="O213" s="6"/>
-      <c r="P213" s="6"/>
-      <c r="Q213" s="6"/>
-      <c r="R213" s="6"/>
-      <c r="S213" s="6"/>
-      <c r="T213" s="6"/>
-      <c r="U213" s="6"/>
-      <c r="V213" s="6"/>
-      <c r="W213" s="6"/>
-      <c r="X213" s="4"/>
-      <c r="Y213" s="4"/>
-      <c r="Z213" s="4"/>
-      <c r="AA213" s="4"/>
-      <c r="AB213" s="4"/>
-      <c r="AC213" s="4"/>
-      <c r="AD213" s="4"/>
-      <c r="AE213" s="5"/>
-      <c r="AF213" s="4"/>
-      <c r="AG213" s="4"/>
-      <c r="AH213" s="4"/>
-      <c r="AI213" s="4"/>
-    </row>
-    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="26"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
-      <c r="I214" s="6"/>
-      <c r="J214" s="6"/>
-      <c r="K214" s="6"/>
-      <c r="L214" s="6"/>
-      <c r="M214" s="6"/>
-      <c r="N214" s="6"/>
-      <c r="O214" s="6"/>
-      <c r="P214" s="6"/>
-      <c r="Q214" s="6"/>
-      <c r="R214" s="6"/>
-      <c r="S214" s="6"/>
-      <c r="T214" s="6"/>
-      <c r="U214" s="6"/>
-      <c r="V214" s="6"/>
-      <c r="W214" s="6"/>
-      <c r="X214" s="4"/>
-      <c r="Y214" s="4"/>
-      <c r="Z214" s="4"/>
-      <c r="AA214" s="4"/>
-      <c r="AB214" s="4"/>
-      <c r="AC214" s="4"/>
-      <c r="AD214" s="4"/>
-      <c r="AE214" s="5"/>
-      <c r="AF214" s="4"/>
-      <c r="AG214" s="4"/>
-      <c r="AH214" s="4"/>
-      <c r="AI214" s="4"/>
-    </row>
-    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="26"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
-      <c r="I215" s="6"/>
-      <c r="J215" s="6"/>
-      <c r="K215" s="6"/>
-      <c r="L215" s="6"/>
-      <c r="M215" s="6"/>
-      <c r="N215" s="6"/>
-      <c r="O215" s="6"/>
-      <c r="P215" s="6"/>
-      <c r="Q215" s="6"/>
-      <c r="R215" s="6"/>
-      <c r="S215" s="6"/>
-      <c r="T215" s="6"/>
-      <c r="U215" s="6"/>
-      <c r="V215" s="6"/>
-      <c r="W215" s="6"/>
-      <c r="X215" s="4"/>
-      <c r="Y215" s="4"/>
-      <c r="Z215" s="4"/>
-      <c r="AA215" s="4"/>
-      <c r="AB215" s="4"/>
-      <c r="AC215" s="4"/>
-      <c r="AD215" s="4"/>
-      <c r="AE215" s="5"/>
-      <c r="AF215" s="4"/>
-      <c r="AG215" s="4"/>
-      <c r="AH215" s="4"/>
-      <c r="AI215" s="4"/>
-    </row>
-    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
-      <c r="I216" s="6"/>
-      <c r="J216" s="6"/>
-      <c r="K216" s="6"/>
-      <c r="L216" s="6"/>
-      <c r="M216" s="6"/>
-      <c r="N216" s="6"/>
-      <c r="O216" s="6"/>
-      <c r="P216" s="6"/>
-      <c r="Q216" s="6"/>
-      <c r="R216" s="6"/>
-      <c r="S216" s="6"/>
-      <c r="T216" s="6"/>
-      <c r="U216" s="6"/>
-      <c r="V216" s="6"/>
-      <c r="W216" s="6"/>
-      <c r="X216" s="4"/>
-      <c r="Y216" s="4"/>
-      <c r="Z216" s="4"/>
-      <c r="AA216" s="4"/>
-      <c r="AB216" s="4"/>
-      <c r="AC216" s="4"/>
-      <c r="AD216" s="4"/>
-      <c r="AE216" s="5"/>
-      <c r="AF216" s="4"/>
-      <c r="AG216" s="4"/>
-      <c r="AH216" s="4"/>
-      <c r="AI216" s="4"/>
-    </row>
-    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
-      <c r="I217" s="6"/>
-      <c r="J217" s="6"/>
-      <c r="K217" s="6"/>
-      <c r="L217" s="6"/>
-      <c r="M217" s="6"/>
-      <c r="N217" s="6"/>
-      <c r="O217" s="6"/>
-      <c r="P217" s="6"/>
-      <c r="Q217" s="6"/>
-      <c r="R217" s="6"/>
-      <c r="S217" s="6"/>
-      <c r="T217" s="6"/>
-      <c r="U217" s="6"/>
-      <c r="V217" s="6"/>
-      <c r="W217" s="6"/>
-      <c r="X217" s="4"/>
-      <c r="Y217" s="4"/>
-      <c r="Z217" s="4"/>
-      <c r="AA217" s="4"/>
-      <c r="AB217" s="4"/>
-      <c r="AC217" s="4"/>
-      <c r="AD217" s="4"/>
-      <c r="AE217" s="5"/>
-      <c r="AF217" s="4"/>
-      <c r="AG217" s="4"/>
-      <c r="AH217" s="4"/>
-      <c r="AI217" s="4"/>
-    </row>
-    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="26"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
-      <c r="I218" s="6"/>
-      <c r="J218" s="6"/>
-      <c r="K218" s="6"/>
-      <c r="L218" s="6"/>
-      <c r="M218" s="6"/>
-      <c r="N218" s="6"/>
-      <c r="O218" s="6"/>
-      <c r="P218" s="6"/>
-      <c r="Q218" s="6"/>
-      <c r="R218" s="6"/>
-      <c r="S218" s="6"/>
-      <c r="T218" s="6"/>
-      <c r="U218" s="6"/>
-      <c r="V218" s="6"/>
-      <c r="W218" s="6"/>
-      <c r="X218" s="4"/>
-      <c r="Y218" s="4"/>
-      <c r="Z218" s="4"/>
-      <c r="AA218" s="4"/>
-      <c r="AB218" s="4"/>
-      <c r="AC218" s="4"/>
-      <c r="AD218" s="4"/>
-      <c r="AE218" s="5"/>
-      <c r="AF218" s="4"/>
-      <c r="AG218" s="4"/>
-      <c r="AH218" s="4"/>
-      <c r="AI218" s="4"/>
-    </row>
-    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="26"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-      <c r="I219" s="6"/>
-      <c r="J219" s="6"/>
-      <c r="K219" s="6"/>
-      <c r="L219" s="6"/>
-      <c r="M219" s="6"/>
-      <c r="N219" s="6"/>
-      <c r="O219" s="6"/>
-      <c r="P219" s="6"/>
-      <c r="Q219" s="6"/>
-      <c r="R219" s="6"/>
-      <c r="S219" s="6"/>
-      <c r="T219" s="6"/>
-      <c r="U219" s="6"/>
-      <c r="V219" s="6"/>
-      <c r="W219" s="6"/>
-      <c r="X219" s="4"/>
-      <c r="Y219" s="4"/>
-      <c r="Z219" s="4"/>
-      <c r="AA219" s="4"/>
-      <c r="AB219" s="4"/>
-      <c r="AC219" s="4"/>
-      <c r="AD219" s="4"/>
-      <c r="AE219" s="5"/>
-      <c r="AF219" s="4"/>
-      <c r="AG219" s="4"/>
-      <c r="AH219" s="4"/>
-      <c r="AI219" s="4"/>
-    </row>
-    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="10">
+        <v>207</v>
+      </c>
+      <c r="B208" s="41" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D208" s="10"/>
+      <c r="E208" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I208" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" s="14">
+        <v>8</v>
+      </c>
+      <c r="K208" s="14"/>
+      <c r="L208" s="16">
+        <v>32867</v>
+      </c>
+      <c r="M208" s="16">
+        <v>37643</v>
+      </c>
+      <c r="N208" s="14"/>
+      <c r="O208" s="14"/>
+      <c r="P208" s="14"/>
+      <c r="Q208" s="14"/>
+      <c r="R208" s="14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="S208" s="14"/>
+      <c r="T208" s="14"/>
+      <c r="U208" s="16"/>
+      <c r="V208" s="15"/>
+      <c r="W208" s="14"/>
+      <c r="X208" s="13"/>
+      <c r="Y208" s="13"/>
+      <c r="Z208" s="13"/>
+      <c r="AA208" s="13"/>
+      <c r="AB208" s="13"/>
+      <c r="AC208" s="12"/>
+      <c r="AD208" s="10"/>
+      <c r="AE208" s="11"/>
+      <c r="AF208" s="10"/>
+      <c r="AG208" s="10"/>
+      <c r="AH208" s="10"/>
+      <c r="AI208" s="9"/>
+      <c r="AJ208" s="7"/>
+      <c r="AK208" s="7"/>
+    </row>
+    <row r="209" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>208</v>
+      </c>
+      <c r="B209" s="41" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D209" s="10"/>
+      <c r="E209" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I209" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J209" s="14">
+        <v>7</v>
+      </c>
+      <c r="K209" s="14"/>
+      <c r="L209" s="16">
+        <v>29221</v>
+      </c>
+      <c r="M209" s="16">
+        <v>40260</v>
+      </c>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+      <c r="R209" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="S209" s="14"/>
+      <c r="T209" s="14"/>
+      <c r="U209" s="16"/>
+      <c r="V209" s="15"/>
+      <c r="W209" s="14"/>
+      <c r="X209" s="13"/>
+      <c r="Y209" s="13"/>
+      <c r="Z209" s="13"/>
+      <c r="AA209" s="13"/>
+      <c r="AB209" s="13"/>
+      <c r="AC209" s="12"/>
+      <c r="AD209" s="10"/>
+      <c r="AE209" s="11"/>
+      <c r="AF209" s="10"/>
+      <c r="AG209" s="10"/>
+      <c r="AH209" s="10"/>
+      <c r="AI209" s="9"/>
+      <c r="AJ209" s="7"/>
+      <c r="AK209" s="7"/>
+    </row>
+    <row r="210" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="10">
+        <v>209</v>
+      </c>
+      <c r="B210" s="41" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D210" s="10"/>
+      <c r="E210" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I210" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="14">
+        <v>7</v>
+      </c>
+      <c r="K210" s="14"/>
+      <c r="L210" s="16">
+        <v>32052</v>
+      </c>
+      <c r="M210" s="16">
+        <v>41684</v>
+      </c>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+      <c r="R210" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="S210" s="14"/>
+      <c r="T210" s="14"/>
+      <c r="U210" s="16"/>
+      <c r="V210" s="15"/>
+      <c r="W210" s="14"/>
+      <c r="X210" s="13"/>
+      <c r="Y210" s="13"/>
+      <c r="Z210" s="13"/>
+      <c r="AA210" s="13"/>
+      <c r="AB210" s="13"/>
+      <c r="AC210" s="12"/>
+      <c r="AD210" s="10"/>
+      <c r="AE210" s="11"/>
+      <c r="AF210" s="10"/>
+      <c r="AG210" s="10"/>
+      <c r="AH210" s="10"/>
+      <c r="AI210" s="9"/>
+      <c r="AJ210" s="7"/>
+      <c r="AK210" s="7"/>
+    </row>
+    <row r="211" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="10">
+        <v>210</v>
+      </c>
+      <c r="B211" s="41" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I211" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="J211" s="14">
+        <v>8</v>
+      </c>
+      <c r="K211" s="14"/>
+      <c r="L211" s="16">
+        <v>30406</v>
+      </c>
+      <c r="M211" s="16">
+        <v>40625</v>
+      </c>
+      <c r="N211" s="14"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="14"/>
+      <c r="Q211" s="14"/>
+      <c r="R211" s="14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="S211" s="14"/>
+      <c r="T211" s="14"/>
+      <c r="U211" s="16"/>
+      <c r="V211" s="15"/>
+      <c r="W211" s="14"/>
+      <c r="X211" s="13"/>
+      <c r="Y211" s="13"/>
+      <c r="Z211" s="13"/>
+      <c r="AA211" s="13"/>
+      <c r="AB211" s="13"/>
+      <c r="AC211" s="12"/>
+      <c r="AD211" s="10"/>
+      <c r="AE211" s="11"/>
+      <c r="AF211" s="10"/>
+      <c r="AG211" s="10"/>
+      <c r="AH211" s="10"/>
+      <c r="AI211" s="9"/>
+      <c r="AJ211" s="7"/>
+      <c r="AK211" s="7"/>
+    </row>
+    <row r="212" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="10">
+        <v>211</v>
+      </c>
+      <c r="B212" s="41" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D212" s="10"/>
+      <c r="E212" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I212" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="J212" s="14">
+        <v>6</v>
+      </c>
+      <c r="K212" s="14"/>
+      <c r="L212" s="16"/>
+      <c r="M212" s="16"/>
+      <c r="N212" s="14"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+      <c r="R212" s="14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="S212" s="14"/>
+      <c r="T212" s="14"/>
+      <c r="U212" s="16"/>
+      <c r="V212" s="15"/>
+      <c r="W212" s="14"/>
+      <c r="X212" s="13"/>
+      <c r="Y212" s="13"/>
+      <c r="Z212" s="13"/>
+      <c r="AA212" s="13"/>
+      <c r="AB212" s="13"/>
+      <c r="AC212" s="12"/>
+      <c r="AD212" s="10"/>
+      <c r="AE212" s="11"/>
+      <c r="AF212" s="10"/>
+      <c r="AG212" s="10"/>
+      <c r="AH212" s="10"/>
+      <c r="AI212" s="9"/>
+      <c r="AJ212" s="7"/>
+      <c r="AK212" s="7"/>
+    </row>
+    <row r="213" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="10">
+        <v>212</v>
+      </c>
+      <c r="B213" s="41" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D213" s="10"/>
+      <c r="E213" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="14">
+        <v>6</v>
+      </c>
+      <c r="K213" s="14"/>
+      <c r="L213" s="16">
+        <v>31048</v>
+      </c>
+      <c r="M213" s="16">
+        <v>38909</v>
+      </c>
+      <c r="N213" s="14"/>
+      <c r="O213" s="14"/>
+      <c r="P213" s="14"/>
+      <c r="Q213" s="14"/>
+      <c r="R213" s="14"/>
+      <c r="S213" s="14"/>
+      <c r="T213" s="14"/>
+      <c r="U213" s="16"/>
+      <c r="V213" s="15"/>
+      <c r="W213" s="14"/>
+      <c r="X213" s="13"/>
+      <c r="Y213" s="13"/>
+      <c r="Z213" s="13"/>
+      <c r="AA213" s="13"/>
+      <c r="AB213" s="13"/>
+      <c r="AC213" s="12"/>
+      <c r="AD213" s="10"/>
+      <c r="AE213" s="11"/>
+      <c r="AF213" s="10"/>
+      <c r="AG213" s="10"/>
+      <c r="AH213" s="10"/>
+      <c r="AI213" s="9"/>
+      <c r="AJ213" s="7"/>
+      <c r="AK213" s="7"/>
+    </row>
+    <row r="214" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10">
+        <v>213</v>
+      </c>
+      <c r="B214" s="41" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D214" s="10"/>
+      <c r="E214" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I214" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J214" s="14">
+        <v>6</v>
+      </c>
+      <c r="K214" s="14"/>
+      <c r="L214" s="16"/>
+      <c r="M214" s="16"/>
+      <c r="N214" s="14"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
+      <c r="R214" s="14"/>
+      <c r="S214" s="14"/>
+      <c r="T214" s="14"/>
+      <c r="U214" s="16"/>
+      <c r="V214" s="15"/>
+      <c r="W214" s="14"/>
+      <c r="X214" s="13"/>
+      <c r="Y214" s="13"/>
+      <c r="Z214" s="13"/>
+      <c r="AA214" s="13"/>
+      <c r="AB214" s="13"/>
+      <c r="AC214" s="12"/>
+      <c r="AD214" s="10"/>
+      <c r="AE214" s="11"/>
+      <c r="AF214" s="10"/>
+      <c r="AG214" s="10"/>
+      <c r="AH214" s="10"/>
+      <c r="AI214" s="9"/>
+      <c r="AJ214" s="7"/>
+      <c r="AK214" s="7"/>
+    </row>
+    <row r="215" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="10">
+        <v>214</v>
+      </c>
+      <c r="B215" s="41" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D215" s="10"/>
+      <c r="E215" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I215" s="14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J215" s="14">
+        <v>6</v>
+      </c>
+      <c r="K215" s="14"/>
+      <c r="L215" s="16">
+        <v>30512</v>
+      </c>
+      <c r="M215" s="16">
+        <v>41086</v>
+      </c>
+      <c r="N215" s="14"/>
+      <c r="O215" s="14"/>
+      <c r="P215" s="14"/>
+      <c r="Q215" s="14"/>
+      <c r="R215" s="14"/>
+      <c r="S215" s="14"/>
+      <c r="T215" s="14"/>
+      <c r="U215" s="16"/>
+      <c r="V215" s="15"/>
+      <c r="W215" s="14"/>
+      <c r="X215" s="13"/>
+      <c r="Y215" s="13"/>
+      <c r="Z215" s="13"/>
+      <c r="AA215" s="13"/>
+      <c r="AB215" s="13"/>
+      <c r="AC215" s="12"/>
+      <c r="AD215" s="10"/>
+      <c r="AE215" s="11"/>
+      <c r="AF215" s="10"/>
+      <c r="AG215" s="10"/>
+      <c r="AH215" s="10"/>
+      <c r="AI215" s="9"/>
+      <c r="AJ215" s="7"/>
+      <c r="AK215" s="7"/>
+    </row>
+    <row r="216" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="10">
+        <v>215</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D216" s="10"/>
+      <c r="E216" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I216" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J216" s="14">
+        <v>6</v>
+      </c>
+      <c r="K216" s="14"/>
+      <c r="L216" s="16"/>
+      <c r="M216" s="16"/>
+      <c r="N216" s="14"/>
+      <c r="O216" s="14"/>
+      <c r="P216" s="14"/>
+      <c r="Q216" s="14"/>
+      <c r="R216" s="14"/>
+      <c r="S216" s="14"/>
+      <c r="T216" s="14"/>
+      <c r="U216" s="16"/>
+      <c r="V216" s="15"/>
+      <c r="W216" s="14"/>
+      <c r="X216" s="13"/>
+      <c r="Y216" s="13"/>
+      <c r="Z216" s="13"/>
+      <c r="AA216" s="13"/>
+      <c r="AB216" s="13"/>
+      <c r="AC216" s="12"/>
+      <c r="AD216" s="10"/>
+      <c r="AE216" s="11"/>
+      <c r="AF216" s="10"/>
+      <c r="AG216" s="10"/>
+      <c r="AH216" s="10"/>
+      <c r="AI216" s="9"/>
+      <c r="AJ216" s="7"/>
+      <c r="AK216" s="7"/>
+    </row>
+    <row r="217" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="10">
+        <v>216</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D217" s="10"/>
+      <c r="E217" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I217" s="14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J217" s="14">
+        <v>6</v>
+      </c>
+      <c r="K217" s="14"/>
+      <c r="L217" s="16"/>
+      <c r="M217" s="16">
+        <v>41083</v>
+      </c>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
+      <c r="P217" s="14"/>
+      <c r="Q217" s="14"/>
+      <c r="R217" s="14"/>
+      <c r="S217" s="14"/>
+      <c r="T217" s="14"/>
+      <c r="U217" s="16"/>
+      <c r="V217" s="15"/>
+      <c r="W217" s="14"/>
+      <c r="X217" s="13"/>
+      <c r="Y217" s="13"/>
+      <c r="Z217" s="13"/>
+      <c r="AA217" s="13"/>
+      <c r="AB217" s="13"/>
+      <c r="AC217" s="12"/>
+      <c r="AD217" s="10"/>
+      <c r="AE217" s="11"/>
+      <c r="AF217" s="10"/>
+      <c r="AG217" s="10"/>
+      <c r="AH217" s="10"/>
+      <c r="AI217" s="9"/>
+      <c r="AJ217" s="7"/>
+      <c r="AK217" s="7"/>
+    </row>
+    <row r="218" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="10">
+        <v>217</v>
+      </c>
+      <c r="B218" s="41" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D218" s="10"/>
+      <c r="E218" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I218" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="14">
+        <v>5</v>
+      </c>
+      <c r="K218" s="14"/>
+      <c r="L218" s="16">
+        <v>35896</v>
+      </c>
+      <c r="M218" s="16">
+        <v>45059</v>
+      </c>
+      <c r="N218" s="14"/>
+      <c r="O218" s="14"/>
+      <c r="P218" s="14"/>
+      <c r="Q218" s="14"/>
+      <c r="R218" s="14"/>
+      <c r="S218" s="14"/>
+      <c r="T218" s="14"/>
+      <c r="U218" s="16"/>
+      <c r="V218" s="15"/>
+      <c r="W218" s="14"/>
+      <c r="X218" s="13"/>
+      <c r="Y218" s="13"/>
+      <c r="Z218" s="13"/>
+      <c r="AA218" s="13"/>
+      <c r="AB218" s="13"/>
+      <c r="AC218" s="12"/>
+      <c r="AD218" s="10"/>
+      <c r="AE218" s="11"/>
+      <c r="AF218" s="10"/>
+      <c r="AG218" s="10"/>
+      <c r="AH218" s="10"/>
+      <c r="AI218" s="9"/>
+      <c r="AJ218" s="7"/>
+      <c r="AK218" s="7"/>
+    </row>
+    <row r="219" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="10">
+        <v>218</v>
+      </c>
+      <c r="B219" s="41" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D219" s="10"/>
+      <c r="E219" s="40" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I219" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J219" s="14">
+        <v>6</v>
+      </c>
+      <c r="K219" s="14"/>
+      <c r="L219" s="16"/>
+      <c r="M219" s="16">
+        <v>44111</v>
+      </c>
+      <c r="N219" s="14"/>
+      <c r="O219" s="14"/>
+      <c r="P219" s="14"/>
+      <c r="Q219" s="14"/>
+      <c r="R219" s="14"/>
+      <c r="S219" s="14"/>
+      <c r="T219" s="14"/>
+      <c r="U219" s="16"/>
+      <c r="V219" s="15"/>
+      <c r="W219" s="14"/>
+      <c r="X219" s="13"/>
+      <c r="Y219" s="13"/>
+      <c r="Z219" s="13"/>
+      <c r="AA219" s="13"/>
+      <c r="AB219" s="13"/>
+      <c r="AC219" s="12"/>
+      <c r="AD219" s="10"/>
+      <c r="AE219" s="11"/>
+      <c r="AF219" s="10"/>
+      <c r="AG219" s="10"/>
+      <c r="AH219" s="10"/>
+      <c r="AI219" s="9"/>
+      <c r="AJ219" s="7"/>
+      <c r="AK219" s="7"/>
+    </row>
+    <row r="220" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -27952,7 +28387,7 @@
       <c r="AH220" s="4"/>
       <c r="AI220" s="4"/>
     </row>
-    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -27989,7 +28424,7 @@
       <c r="AH221" s="4"/>
       <c r="AI221" s="4"/>
     </row>
-    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -28026,7 +28461,7 @@
       <c r="AH222" s="4"/>
       <c r="AI222" s="4"/>
     </row>
-    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -28063,7 +28498,7 @@
       <c r="AH223" s="4"/>
       <c r="AI223" s="4"/>
     </row>
-    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
